--- a/src/brute_force/always_stand_results/always_stand_results.xlsx
+++ b/src/brute_force/always_stand_results/always_stand_results.xlsx
@@ -7,16 +7,17 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="test1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="test2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="test3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="test4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="test5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="test6" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="test7" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="test8" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="test9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="test1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="test2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="test3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="test4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="test5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="test6" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="test7" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="test8" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="test9" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,502 +435,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Player Hand</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Dealer Hand</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Player Total</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dealer Total</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>[10 of Spades, 2 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[Queen of Clubs, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>[8 of Hearts, 3 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[4 of Hearts, 4 of Hearts, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>[3 of Diamonds, 1 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[9 of Clubs, 6 of Spades, 1 of Spades, 7 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>[7 of Spades, 2 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[2 of Hearts, 3 of Spades, King of Spades, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>[10 of Diamonds, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[5 of Hearts, 5 of Spades, 9 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>19</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>[10 of Diamonds, Jack of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[8 of Diamonds, 1 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>20</v>
-      </c>
-      <c r="D7" t="n">
-        <v>19</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>[5 of Diamonds, Queen of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[2 of Diamonds, Queen of Hearts, 7 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>15</v>
-      </c>
-      <c r="D8" t="n">
-        <v>19</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>[King of Hearts, 8 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[6 of Clubs, 7 of Hearts, 3 of Spades, 5 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>18</v>
-      </c>
-      <c r="D9" t="n">
-        <v>21</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>[3 of Clubs, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[4 of Clubs, 4 of Diamonds, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>13</v>
-      </c>
-      <c r="D10" t="n">
-        <v>18</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>[6 of Diamonds, 3 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[8 of Clubs, 4 of Clubs, 5 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>17</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>[2 of Diamonds, 2 of Spades]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[4 of Spades, 6 of Hearts, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>19</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>[1 of Spades, 6 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[10 of Hearts, 3 of Hearts, 3 of Clubs, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>17</v>
-      </c>
-      <c r="D13" t="n">
-        <v>26</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>[1 of Clubs, King of Spades]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[8 of Spades, 9 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>21</v>
-      </c>
-      <c r="D14" t="n">
-        <v>17</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>[Queen of Clubs, 6 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[9 of Hearts, 5 of Spades, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>16</v>
-      </c>
-      <c r="D15" t="n">
-        <v>24</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>[2 of Spades, 8 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[2 of Hearts, Jack of Diamonds, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>10</v>
-      </c>
-      <c r="D16" t="n">
-        <v>22</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>[King of Diamonds, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[8 of Diamonds, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>19</v>
-      </c>
-      <c r="D17" t="n">
-        <v>17</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>[1 of Diamonds, 1 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[5 of Hearts, Queen of Diamonds, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>12</v>
-      </c>
-      <c r="D18" t="n">
-        <v>24</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>[6 of Spades, Queen of Hearts]</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[Jack of Clubs, 5 of Clubs, 10 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>16</v>
-      </c>
-      <c r="D19" t="n">
-        <v>25</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>[7 of Diamonds, 7 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[King of Hearts, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>14</v>
-      </c>
-      <c r="D20" t="n">
-        <v>20</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>[6 of Clubs, 7 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>[7 of Spades, 10 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>13</v>
-      </c>
-      <c r="D21" t="n">
-        <v>17</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -978,19 +491,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 10 of Hearts]</t>
+          <t>[6 of Clubs, 3 of Spades]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[King of Hearts, 1 of Hearts]</t>
+          <t>[4 of Spades, King of Hearts, 5 of Diamonds]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1001,65 +514,65 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, 9 of Diamonds]</t>
+          <t>[3 of Clubs, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 6 of Clubs, Queen of Spades]</t>
+          <t>[9 of Diamonds, 7 of Diamonds, 4 of Hearts]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[1 of Clubs, King of Clubs]</t>
+          <t>[9 of Clubs, 5 of Clubs]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, 8 of Hearts, 1 of Diamonds, 7 of Clubs]</t>
+          <t>[1 of Hearts, 4 of Diamonds, 4 of Clubs]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[5 of Hearts, 6 of Spades]</t>
+          <t>[6 of Hearts, 7 of Spades]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 3 of Hearts, 8 of Spades, 9 of Clubs]</t>
+          <t>[9 of Hearts, 7 of Diamonds, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1070,16 +583,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 1 of Diamonds]</t>
+          <t>[10 of Diamonds, 4 of Spades]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 5 of Diamonds, 3 of Spades]</t>
+          <t>[3 of Hearts, Queen of Clubs, 5 of Spades]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
         <v>18</v>
@@ -1093,65 +606,65 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 5 of Clubs]</t>
+          <t>[King of Spades, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[King of Spades, 3 of Clubs, 7 of Hearts]</t>
+          <t>[7 of Spades, 1 of Clubs]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, Jack of Clubs]</t>
+          <t>[7 of Hearts, King of Clubs]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 7 of Diamonds]</t>
+          <t>[1 of Spades, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
         <v>17</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[6 of Spades, 9 of Clubs]</t>
+          <t>[Jack of Hearts, 2 of Spades]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[9 of Hearts, 6 of Clubs, 5 of Spades]</t>
+          <t>[2 of Clubs, King of Clubs, 5 of Clubs]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1162,19 +675,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 1 of Clubs]</t>
+          <t>[8 of Clubs, Queen of Spades]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 5 of Spades, 4 of Spades]</t>
+          <t>[3 of Diamonds, 9 of Spades, King of Hearts]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1185,16 +698,16 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 6 of Diamonds]</t>
+          <t>[Jack of Clubs, 1 of Spades]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, King of Hearts, 2 of Spades, King of Clubs]</t>
+          <t>[4 of Clubs, 10 of Clubs, Jack of Spades]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
         <v>24</v>
@@ -1208,88 +721,88 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[1 of Spades, 1 of Hearts]</t>
+          <t>[8 of Spades, 7 of Clubs]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[4 of Hearts, Queen of Diamonds, 6 of Hearts]</t>
+          <t>[9 of Clubs, 5 of Spades, King of Diamonds]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, King of Diamonds]</t>
+          <t>[6 of Clubs, 10 of Spades]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 8 of Diamonds, 4 of Clubs, 4 of Spades]</t>
+          <t>[4 of Diamonds, 8 of Hearts, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="C13" t="n">
+        <v>16</v>
+      </c>
+      <c r="D13" t="n">
         <v>20</v>
       </c>
-      <c r="D13" t="n">
-        <v>18</v>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[7 of Spades, Jack of Spades]</t>
+          <t>[4 of Hearts, 6 of Spades]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, 9 of Spades, 8 of Diamonds]</t>
+          <t>[Queen of Spades, 5 of Hearts, 2 of Hearts]</t>
         </is>
       </c>
       <c r="C14" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" t="n">
         <v>17</v>
       </c>
-      <c r="D14" t="n">
-        <v>22</v>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[10 of Spades, 2 of Hearts]</t>
+          <t>[9 of Spades, 6 of Hearts]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[7 of Clubs, 9 of Spades, 10 of Clubs]</t>
+          <t>[2 of Hearts, 10 of Spades, 2 of Clubs, 1 of Hearts, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1300,19 +813,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[2 of Spades, 9 of Hearts]</t>
+          <t>[7 of Hearts, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[5 of Hearts, 8 of Hearts, 8 of Clubs]</t>
+          <t>[9 of Hearts, Queen of Hearts]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1323,42 +836,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[6 of Diamonds, 7 of Hearts]</t>
+          <t>[5 of Diamonds, Jack of Hearts]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, 7 of Spades]</t>
+          <t>[3 of Clubs, 3 of Spades, King of Spades, 8 of Clubs]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[King of Diamonds, 9 of Diamonds]</t>
+          <t>[1 of Clubs, 2 of Diamonds]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[10 of Spades, Queen of Spades]</t>
+          <t>[Jack of Diamonds, 8 of Hearts]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1369,42 +882,42 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, 3 of Clubs]</t>
+          <t>[5 of Hearts, 6 of Spades]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, 2 of Hearts, 10 of Hearts, 4 of Hearts]</t>
+          <t>[2 of Diamonds, 1 of Diamonds, Queen of Hearts, Jack of Spades]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[10 of Clubs, Jack of Clubs]</t>
+          <t>[3 of Hearts, 7 of Clubs]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 6 of Hearts, King of Spades]</t>
+          <t>[Jack of Clubs, 2 of Spades, Queen of Clubs]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1412,19 +925,13 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-    </row>
+    <row r="21"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1468,19 +975,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[9 of Spades, 2 of Clubs]</t>
+          <t>[3 of Hearts, 3 of Clubs]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, 5 of Hearts, Jack of Hearts]</t>
+          <t>[1 of Clubs, 2 of Hearts, 9 of Diamonds, King of Diamonds]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1491,16 +998,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[10 of Clubs, 6 of Hearts]</t>
+          <t>[6 of Hearts, 2 of Clubs]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[8 of Spades, 3 of Hearts, 3 of Clubs, 6 of Spades]</t>
+          <t>[10 of Diamonds, 10 of Clubs]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
         <v>20</v>
@@ -1514,42 +1021,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 8 of Diamonds]</t>
+          <t>[10 of Hearts, 9 of Hearts]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, Queen of Clubs]</t>
+          <t>[4 of Diamonds, 4 of Spades, 5 of Hearts, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[4 of Spades, 4 of Hearts]</t>
+          <t>[8 of Spades, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 10 of Clubs]</t>
+          <t>[Jack of Diamonds, King of Diamonds]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1560,16 +1067,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, King of Diamonds]</t>
+          <t>[6 of Clubs, 8 of Spades]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[1 of Spades, 2 of Diamonds, 8 of Hearts]</t>
+          <t>[7 of Hearts, 7 of Spades, 7 of Clubs]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
         <v>21</v>
@@ -1583,65 +1090,65 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[7 of Hearts, Queen of Hearts]</t>
+          <t>[King of Clubs, 5 of Clubs]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[7 of Spades, King of Spades]</t>
+          <t>[6 of Spades, Jack of Diamonds, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 9 of Spades]</t>
+          <t>[2 of Diamonds, 6 of Hearts]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[7 of Clubs, 4 of Diamonds, 4 of Hearts, Jack of Diamonds]</t>
+          <t>[5 of Diamonds, 4 of Hearts, King of Clubs]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[1 of Hearts, 6 of Clubs]</t>
+          <t>[Jack of Clubs, 3 of Diamonds]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[1 of Clubs, Queen of Clubs]</t>
+          <t>[4 of Clubs, 2 of Diamonds, 10 of Hearts, 3 of Spades]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1652,19 +1159,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[5 of Spades, 9 of Hearts]</t>
+          <t>[Queen of Clubs, Queen of Spades]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 5 of Diamonds, Queen of Spades]</t>
+          <t>[9 of Spades, 8 of Clubs]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1675,16 +1182,16 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[6 of Clubs, King of Diamonds]</t>
+          <t>[4 of Clubs, 10 of Clubs]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[1 of Hearts, Queen of Diamonds]</t>
+          <t>[Jack of Hearts, 1 of Hearts]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
         <v>21</v>
@@ -1698,19 +1205,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 6 of Diamonds]</t>
+          <t>[King of Hearts, Jack of Clubs]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, 6 of Spades, 7 of Spades]</t>
+          <t>[8 of Hearts, 6 of Clubs, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1721,65 +1228,65 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, 6 of Hearts]</t>
+          <t>[2 of Hearts, 3 of Spades]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[8 of Clubs, Jack of Clubs]</t>
+          <t>[8 of Hearts, 2 of Spades, 5 of Spades, 1 of Diamonds, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, 5 of Spades]</t>
+          <t>[8 of Clubs, 2 of Clubs]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[2 of Spades, 5 of Hearts, 3 of Diamonds, 3 of Spades, 4 of Spades]</t>
+          <t>[Jack of Hearts, 5 of Spades, King of Spades]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[King of Hearts, 2 of Hearts]</t>
+          <t>[7 of Spades, 9 of Clubs]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[6 of Diamonds, 5 of Clubs, Jack of Clubs]</t>
+          <t>[9 of Clubs, Jack of Spades]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1790,19 +1297,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, Jack of Spades]</t>
+          <t>[Queen of Spades, 9 of Hearts]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[8 of Clubs, 2 of Hearts, 3 of Diamonds, 9 of Hearts]</t>
+          <t>[King of Spades, 5 of Diamonds, 1 of Clubs, 10 of Spades]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1813,42 +1320,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[4 of Clubs, King of Clubs]</t>
+          <t>[7 of Diamonds, 3 of Diamonds]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[4 of Clubs, King of Clubs, 9 of Clubs]</t>
+          <t>[4 of Diamonds, 9 of Diamonds, 2 of Spades, 3 of Hearts]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, 8 of Spades]</t>
+          <t>[7 of Hearts, 1 of Spades]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 1 of Clubs]</t>
+          <t>[1 of Hearts, 3 of Clubs, 1 of Diamonds, Jack of Spades, 5 of Clubs]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1859,16 +1366,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 3 of Clubs]</t>
+          <t>[Queen of Hearts, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[10 of Spades, King of Spades]</t>
+          <t>[5 of Hearts, 9 of Spades, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D19" t="n">
         <v>20</v>
@@ -1882,55 +1389,39 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[3 of Spades, 7 of Clubs]</t>
+          <t>[Queen of Clubs, 10 of Spades]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, 9 of Clubs]</t>
+          <t>[7 of Clubs, 6 of Spades, Queen of Hearts]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>[9 of Diamonds, 5 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>[10 of Spades, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>14</v>
-      </c>
-      <c r="D21" t="n">
-        <v>19</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1974,19 +1465,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, 10 of Spades]</t>
+          <t>[King of Diamonds, 6 of Hearts]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[10 of Spades, Jack of Hearts]</t>
+          <t>[3 of Diamonds, 8 of Diamonds, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
         <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1997,16 +1488,499 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[7 of Clubs, Queen of Clubs]</t>
+          <t>[9 of Diamonds, Jack of Spades]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 6 of Spades, 9 of Diamonds]</t>
+          <t>[3 of Hearts, 8 of Clubs, 4 of Spades, 9 of Hearts]</t>
         </is>
       </c>
       <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>[10 of Spades, 9 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[7 of Hearts, 6 of Spades, 2 of Spades, 6 of Clubs]</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>[2 of Hearts, 7 of Spades]</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[2 of Diamonds, King of Spades, 1 of Clubs, 3 of Hearts, 2 of Hearts]</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>[7 of Clubs, Jack of Clubs]</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[Jack of Hearts, 4 of Spades, 3 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tie</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>[Jack of Diamonds, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[1 of Diamonds, 5 of Hearts, 3 of Spades]</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[Queen of Clubs, 4 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[4 of Hearts, 7 of Spades, 8 of Hearts]</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>[King of Diamonds, King of Hearts]</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[3 of Spades, King of Clubs, 5 of Spades]</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>[King of Clubs, 5 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[6 of Diamonds, 9 of Hearts, 6 of Clubs]</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>15</v>
+      </c>
+      <c r="D10" t="n">
+        <v>21</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>[4 of Diamonds, Jack of Hearts]</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[2 of Clubs, 10 of Diamonds, 8 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>14</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>[10 of Diamonds, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[4 of Clubs, 1 of Spades, Jack of Diamonds, 4 of Hearts]</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>[5 of Clubs, 10 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[King of Hearts, Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>15</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>[2 of Clubs, Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[1 of Clubs, 7 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>18</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[8 of Spades, 7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[1 of Spades, 10 of Spades]</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>15</v>
+      </c>
+      <c r="D15" t="n">
+        <v>21</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[5 of Diamonds, 9 of Spades]</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[Queen of Diamonds, 5 of Spades, 8 of Spades]</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>23</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[6 of Hearts, 5 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[9 of Clubs, 6 of Spades, 1 of Hearts, Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>11</v>
+      </c>
+      <c r="D17" t="n">
+        <v>26</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[8 of Clubs, 10 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[9 of Spades, Queen of Clubs]</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>18</v>
+      </c>
+      <c r="D18" t="n">
+        <v>19</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>[Jack of Spades, 8 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[Queen of Spades, 2 of Spades, 3 of Clubs, King of Spades]</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="n">
+        <v>25</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>[7 of Clubs, 1 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[7 of Diamonds, 5 of Diamonds, 2 of Diamonds, 1 of Hearts, Jack of Clubs]</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>25</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Hand</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Hand</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Player Total</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Total</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>[Queen of Spades, 5 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[2 of Spades, 7 of Diamonds, 3 of Clubs, 2 of Clubs, 5 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>[6 of Spades, 7 of Spades]</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[9 of Hearts, 4 of Hearts, 6 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
       </c>
       <c r="D3" t="n">
         <v>19</v>
@@ -2020,42 +1994,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[King of Clubs, 5 of Diamonds]</t>
+          <t>[1 of Spades, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, 5 of Hearts, 3 of Hearts, 3 of Clubs]</t>
+          <t>[8 of Clubs, 4 of Clubs, 5 of Hearts]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[6 of Spades, 10 of Hearts]</t>
+          <t>[Jack of Spades, 10 of Clubs]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 3 of Spades, 7 of Clubs, 8 of Clubs]</t>
+          <t>[Jack of Clubs, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2066,39 +2040,39 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[King of Hearts, 1 of Spades]</t>
+          <t>[7 of Hearts, Jack of Hearts]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[10 of Clubs, 5 of Diamonds, King of Diamonds]</t>
+          <t>[8 of Hearts, 1 of Diamonds]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, Queen of Spades]</t>
+          <t>[1 of Hearts, 5 of Diamonds]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 8 of Hearts, 8 of Spades]</t>
+          <t>[6 of Clubs, Jack of Clubs, 3 of Spades]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
         <v>19</v>
@@ -2112,88 +2086,88 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[6 of Hearts, Queen of Spades]</t>
+          <t>[3 of Hearts, 2 of Diamonds]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[3 of Clubs, Jack of Clubs, 9 of Hearts]</t>
+          <t>[2 of Clubs, 8 of Spades, King of Diamonds]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[5 of Clubs, 1 of Clubs]</t>
+          <t>[2 of Diamonds, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[8 of Hearts, 6 of Diamonds, 10 of Diamonds]</t>
+          <t>[King of Diamonds, 9 of Clubs]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[5 of Spades, 1 of Spades]</t>
+          <t>[10 of Hearts, 7 of Spades]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 7 of Hearts, 2 of Spades, 5 of Clubs]</t>
+          <t>[Queen of Hearts, 4 of Clubs, 3 of Diamonds]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, Queen of Hearts]</t>
+          <t>[7 of Hearts, 2 of Hearts]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[King of Spades, 7 of Diamonds]</t>
+          <t>[3 of Spades, 3 of Hearts, Queen of Clubs, King of Spades]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2204,19 +2178,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 9 of Spades]</t>
+          <t>[King of Hearts, 1 of Spades]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 1 of Diamonds, 7 of Hearts, 6 of Clubs]</t>
+          <t>[1 of Clubs, 3 of Diamonds, 10 of Hearts, 9 of Spades]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2227,42 +2201,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[Jack of Spades, King of Diamonds]</t>
+          <t>[Jack of Spades, 5 of Hearts]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 6 of Diamonds, 2 of Clubs]</t>
+          <t>[8 of Hearts, Queen of Clubs]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
         <v>18</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[8 of Clubs, 4 of Clubs]</t>
+          <t>[7 of Clubs, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, 7 of Spades]</t>
+          <t>[4 of Diamonds, 4 of Diamonds, 8 of Diamonds, 5 of Spades]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2273,85 +2247,85 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 6 of Hearts]</t>
+          <t>[King of Clubs, Queen of Spades]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, 2 of Hearts, 1 of Clubs]</t>
+          <t>[10 of Clubs, King of Clubs]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 2 of Hearts]</t>
+          <t>[10 of Diamonds, 9 of Hearts]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[1 of Hearts, 2 of Diamonds, 2 of Spades, 10 of Clubs, 8 of Spades]</t>
+          <t>[9 of Diamonds, 1 of Diamonds]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, Jack of Spades]</t>
+          <t>[King of Hearts, 5 of Spades]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[7 of Spades, Queen of Hearts]</t>
+          <t>[4 of Spades, 9 of Clubs, 4 of Hearts]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
         <v>17</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 9 of Hearts]</t>
+          <t>[5 of Clubs, 1 of Hearts]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[King of Hearts, 5 of Hearts, 9 of Spades]</t>
+          <t>[10 of Spades, 6 of Diamonds, 8 of Clubs]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D18" t="n">
         <v>24</v>
@@ -2365,46 +2339,69 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 1 of Hearts]</t>
+          <t>[Jack of Diamonds, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 3 of Diamonds, Jack of Clubs]</t>
+          <t>[3 of Clubs, 7 of Diamonds, 9 of Spades]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[King of Clubs, Queen of Clubs]</t>
+          <t>[4 of Spades, Jack of Hearts]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[King of Spades, 4 of Spades, 6 of Clubs]</t>
+          <t>[2 of Hearts, 8 of Spades, 1 of Clubs]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>[6 of Hearts, 2 of Spades]</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[King of Spades, 6 of Clubs, 10 of Spades]</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>26</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2457,19 +2454,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[6 of Spades, 3 of Hearts]</t>
+          <t>[3 of Spades, 1 of Diamonds]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 2 of Clubs, 10 of Diamonds]</t>
+          <t>[10 of Hearts, King of Clubs]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -2480,65 +2477,65 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 10 of Hearts]</t>
+          <t>[King of Diamonds, King of Clubs]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, 10 of Spades]</t>
+          <t>[Jack of Hearts, 7 of Hearts]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, 3 of Diamonds]</t>
+          <t>[Jack of Hearts, 8 of Clubs]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 5 of Diamonds, 9 of Hearts]</t>
+          <t>[Jack of Diamonds, 6 of Spades, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[4 of Spades, King of Diamonds]</t>
+          <t>[4 of Hearts, King of Diamonds]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 9 of Clubs]</t>
+          <t>[1 of Diamonds, 10 of Hearts]</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2549,19 +2546,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 10 of Spades]</t>
+          <t>[5 of Hearts, King of Hearts]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[1 of Hearts, Jack of Hearts]</t>
+          <t>[1 of Spades, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2572,111 +2569,111 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 7 of Spades]</t>
+          <t>[3 of Diamonds, Jack of Spades]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[9 of Spades, 8 of Diamonds]</t>
+          <t>[10 of Spades, 6 of Clubs, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[5 of Clubs, King of Clubs]</t>
+          <t>[7 of Diamonds, 3 of Clubs]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 2 of Hearts, Queen of Clubs]</t>
+          <t>[9 of Diamonds, 9 of Clubs]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[5 of Hearts, King of Diamonds]</t>
+          <t>[4 of Spades, 4 of Clubs]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, King of Hearts, 2 of Spades]</t>
+          <t>[6 of Hearts, 7 of Spades, Queen of Spades]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, 4 of Clubs]</t>
+          <t>[2 of Diamonds, 2 of Spades]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[7 of Spades, Jack of Spades]</t>
+          <t>[5 of Diamonds, 10 of Clubs, 10 of Clubs]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[3 of Clubs, 5 of Hearts]</t>
+          <t>[3 of Clubs, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[5 of Spades, 4 of Spades, 5 of Clubs, 2 of Hearts, 4 of Diamonds]</t>
+          <t>[10 of Diamonds, 8 of Hearts]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2687,19 +2684,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, 6 of Diamonds]</t>
+          <t>[3 of Hearts, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 9 of Spades]</t>
+          <t>[3 of Diamonds, 5 of Hearts, 2 of Clubs, 8 of Clubs]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2710,19 +2707,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 6 of Spades]</t>
+          <t>[4 of Spades, 2 of Hearts]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[1 of Hearts, Jack of Clubs]</t>
+          <t>[2 of Diamonds, 8 of Spades, 9 of Spades]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2733,88 +2730,88 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[8 of Spades, Queen of Hearts]</t>
+          <t>[4 of Diamonds, Queen of Hearts]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[3 of Spades, 9 of Diamonds, 8 of Clubs]</t>
+          <t>[3 of Spades, King of Spades, Queen of Clubs]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 7 of Clubs]</t>
+          <t>[2 of Hearts, 7 of Spades]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 4 of Diamonds, 6 of Diamonds, 5 of Spades]</t>
+          <t>[9 of Clubs, 7 of Hearts, 9 of Hearts]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[1 of Spades, King of Clubs]</t>
+          <t>[Queen of Diamonds, King of Hearts]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 9 of Diamonds, 6 of Clubs]</t>
+          <t>[4 of Diamonds, 1 of Hearts, 1 of Spades, 4 of Clubs]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 9 of Hearts]</t>
+          <t>[10 of Spades, 9 of Spades]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, King of Hearts]</t>
+          <t>[10 of Diamonds, 5 of Spades, 6 of Clubs]</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>19</v>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2825,19 +2822,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, 7 of Diamonds]</t>
+          <t>[4 of Hearts, Queen of Clubs]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[8 of Hearts, 3 of Clubs, 7 of Diamonds]</t>
+          <t>[Jack of Spades, 5 of Spades, 5 of Diamonds]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2848,92 +2845,69 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[10 of Clubs, 7 of Hearts]</t>
+          <t>[3 of Hearts, King of Spades]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[8 of Spades, 1 of Clubs]</t>
+          <t>[5 of Clubs, 5 of Clubs, 6 of Spades, 7 of Clubs]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 4 of Clubs]</t>
+          <t>[9 of Hearts, 1 of Clubs]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[7 of Clubs, 8 of Clubs, 4 of Hearts]</t>
+          <t>[1 of Hearts, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[8 of Hearts, 2 of Diamonds]</t>
+          <t>[1 of Clubs, 8 of Spades]</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 3 of Spades, 10 of Hearts]</t>
+          <t>[7 of Clubs, 6 of Hearts, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>[King of Spades, 1 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>[10 of Clubs, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>21</v>
-      </c>
-      <c r="D22" t="n">
-        <v>20</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Win</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2986,65 +2960,65 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 8 of Spades]</t>
+          <t>[10 of Clubs, 8 of Hearts]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[3 of Spades, 4 of Hearts, 9 of Diamonds, King of Hearts]</t>
+          <t>[2 of Hearts, 9 of Spades, 1 of Clubs, 1 of Spades, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 10 of Clubs]</t>
+          <t>[10 of Hearts, 3 of Clubs]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[King of Diamonds, 4 of Spades, 10 of Hearts]</t>
+          <t>[Queen of Diamonds, 1 of Clubs]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[4 of Spades, 2 of Spades]</t>
+          <t>[10 of Spades, 9 of Clubs]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[King of Clubs, 2 of Hearts, 6 of Clubs]</t>
+          <t>[10 of Hearts, Jack of Hearts]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -3055,42 +3029,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, Queen of Hearts]</t>
+          <t>[5 of Clubs, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[1 of Spades, 7 of Spades]</t>
+          <t>[8 of Spades, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 2 of Spades]</t>
+          <t>[King of Hearts, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[9 of Spades, King of Hearts]</t>
+          <t>[Jack of Hearts, 1 of Diamonds]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -3101,65 +3075,65 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[6 of Clubs, 7 of Diamonds]</t>
+          <t>[Queen of Spades, 10 of Spades]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[5 of Clubs, 1 of Hearts, 5 of Clubs]</t>
+          <t>[6 of Hearts, 5 of Diamonds, 6 of Hearts]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 1 of Clubs]</t>
+          <t>[6 of Clubs, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, King of Spades]</t>
+          <t>[8 of Spades, Queen of Hearts]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 3 of Diamonds]</t>
+          <t>[5 of Hearts, 3 of Hearts]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, 10 of Spades, 5 of Hearts]</t>
+          <t>[1 of Spades, Jack of Spades]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -3170,19 +3144,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, Jack of Clubs]</t>
+          <t>[6 of Clubs, 5 of Spades]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, 5 of Diamonds, Queen of Spades]</t>
+          <t>[9 of Diamonds, 5 of Spades, 3 of Spades]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3193,19 +3167,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 7 of Hearts]</t>
+          <t>[3 of Clubs, King of Clubs]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 7 of Spades, 9 of Clubs]</t>
+          <t>[King of Hearts, 5 of Diamonds, 2 of Spades]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -3216,108 +3190,108 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 10 of Spades]</t>
+          <t>[8 of Hearts, 3 of Diamonds]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[2 of Clubs, King of Spades, 10 of Diamonds]</t>
+          <t>[King of Spades, 7 of Clubs]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[6 of Spades, 8 of Spades]</t>
+          <t>[9 of Clubs, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[3 of Hearts, Queen of Hearts, 1 of Diamonds, 1 of Hearts, 8 of Hearts]</t>
+          <t>[4 of Spades, Queen of Hearts, 6 of Spades]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 7 of Clubs]</t>
+          <t>[5 of Clubs, King of Spades]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[6 of Diamonds, Jack of Clubs, 8 of Hearts]</t>
+          <t>[9 of Hearts, 1 of Diamonds]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 9 of Hearts]</t>
+          <t>[King of Diamonds, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[4 of Hearts, King of Diamonds, 5 of Hearts]</t>
+          <t>[7 of Spades, 3 of Diamonds, 6 of Spades, 4 of Spades]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[5 of Spades, 9 of Diamonds]</t>
+          <t>[7 of Hearts, Queen of Spades]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 4 of Clubs, 5 of Spades, 3 of Clubs, 3 of Clubs]</t>
+          <t>[2 of Clubs, 4 of Diamonds, Jack of Clubs, 3 of Hearts]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
         <v>19</v>
@@ -3331,42 +3305,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[6 of Diamonds, 6 of Spades]</t>
+          <t>[Jack of Diamonds, 7 of Spades]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, 9 of Spades]</t>
+          <t>[10 of Clubs, 2 of Diamonds, 2 of Clubs, Queen of Clubs]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 2 of Diamonds]</t>
+          <t>[8 of Clubs, 8 of Clubs]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 8 of Clubs, Queen of Spades]</t>
+          <t>[9 of Hearts, 9 of Spades]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -3377,19 +3351,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[6 of Hearts, Jack of Diamonds]</t>
+          <t>[4 of Diamonds, 2 of Spades]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, 1 of Spades]</t>
+          <t>[1 of Hearts, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3400,23 +3374,46 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 9 of Hearts]</t>
+          <t>[King of Clubs, Queen of Clubs]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[3 of Spades, King of Clubs, Queen of Clubs]</t>
+          <t>[5 of Hearts, 8 of Diamonds, 2 of Diamonds, King of Diamonds]</t>
         </is>
       </c>
       <c r="C20" t="n">
+        <v>20</v>
+      </c>
+      <c r="D20" t="n">
+        <v>25</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>[7 of Hearts, 4 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[4 of Hearts, 3 of Spades, 2 of Hearts, Jack of Spades]</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>11</v>
       </c>
-      <c r="D20" t="n">
-        <v>23</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Win</t>
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Lose</t>
         </is>
       </c>
     </row>
@@ -3469,42 +3466,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[9 of Hearts, King of Diamonds]</t>
+          <t>[2 of Spades, 8 of Clubs]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[10 of Clubs, 2 of Clubs, 5 of Spades]</t>
+          <t>[1 of Spades, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 1 of Spades]</t>
+          <t>[10 of Diamonds, 5 of Diamonds]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[8 of Clubs, Queen of Spades]</t>
+          <t>[3 of Spades, Jack of Hearts, King of Diamonds]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -3515,108 +3512,108 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 7 of Clubs]</t>
+          <t>[10 of Hearts, 1 of Hearts]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[King of Spades, 7 of Diamonds]</t>
+          <t>[7 of Clubs, 1 of Diamonds]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[8 of Clubs, Queen of Clubs]</t>
+          <t>[5 of Spades, 6 of Hearts]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[1 of Spades, 10 of Spades]</t>
+          <t>[5 of Hearts, 3 of Clubs, 8 of Hearts, 7 of Clubs]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, Queen of Diamonds]</t>
+          <t>[7 of Spades, 2 of Spades]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 4 of Spades, 1 of Diamonds, 2 of Hearts, 1 of Hearts]</t>
+          <t>[6 of Hearts, 6 of Spades, 6 of Clubs]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[5 of Spades, 7 of Clubs]</t>
+          <t>[King of Hearts, 4 of Spades]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 10 of Diamonds, King of Spades]</t>
+          <t>[Jack of Spades, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[3 of Spades, Jack of Clubs]</t>
+          <t>[3 of Diamonds, 6 of Spades]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 8 of Spades, 2 of Spades, King of Hearts]</t>
+          <t>[4 of Diamonds, 7 of Diamonds, 3 of Clubs, 10 of Hearts]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
         <v>24</v>
@@ -3630,226 +3627,226 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, Queen of Hearts]</t>
+          <t>[8 of Spades, 3 of Hearts]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[6 of Clubs, 6 of Spades, Jack of Diamonds]</t>
+          <t>[9 of Hearts, 10 of Clubs]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[4 of Spades, 9 of Clubs]</t>
+          <t>[1 of Spades, King of Diamonds]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[King of Hearts, 2 of Diamonds, 7 of Spades]</t>
+          <t>[2 of Clubs, 9 of Spades, 2 of Diamonds, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
         <v>19</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, 9 of Spades]</t>
+          <t>[9 of Hearts, Queen of Clubs]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[1 of Hearts, 6 of Hearts]</t>
+          <t>[7 of Diamonds, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
         <v>17</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 9 of Spades]</t>
+          <t>[2 of Hearts, 2 of Clubs]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[5 of Clubs, King of Clubs, 3 of Clubs]</t>
+          <t>[7 of Spades, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 4 of Hearts]</t>
+          <t>[King of Spades, 5 of Clubs]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 6 of Diamonds, Jack of Spades]</t>
+          <t>[5 of Hearts, King of Spades, 3 of Hearts]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 4 of Diamonds]</t>
+          <t>[4 of Diamonds, Jack of Spades]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, Queen of Hearts]</t>
+          <t>[Queen of Spades, 5 of Diamonds, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, 3 of Diamonds]</t>
+          <t>[Queen of Clubs, 7 of Hearts]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[5 of Clubs, 6 of Diamonds, 6 of Spades]</t>
+          <t>[10 of Spades, 7 of Hearts]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
         <v>17</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[10 of Spades, 3 of Diamonds]</t>
+          <t>[4 of Hearts, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[10 of Clubs, 10 of Hearts]</t>
+          <t>[6 of Diamonds, Jack of Clubs, King of Hearts]</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>13</v>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[3 of Hearts, Jack of Clubs]</t>
+          <t>[Queen of Hearts, 3 of Spades]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[3 of Spades, 9 of Hearts, 2 of Spades, 8 of Spades]</t>
+          <t>[2 of Diamonds, 1 of Hearts, Queen of Hearts, 8 of Spades]</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>13</v>
       </c>
       <c r="D17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, 8 of Diamonds]</t>
+          <t>[Jack of Diamonds, 9 of Clubs]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 7 of Hearts]</t>
+          <t>[9 of Spades, 1 of Diamonds]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -3860,42 +3857,42 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[8 of Hearts, 10 of Diamonds]</t>
+          <t>[King of Clubs, 6 of Clubs]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[5 of Hearts, 1 of Clubs, 2 of Clubs]</t>
+          <t>[3 of Diamonds, 10 of Clubs, 8 of Hearts]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 2 of Hearts]</t>
+          <t>[4 of Hearts, 8 of Clubs]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[King of Diamonds, King of Clubs]</t>
+          <t>[Jack of Clubs, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -3906,19 +3903,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 3 of Clubs]</t>
+          <t>[2 of Hearts, King of Clubs]</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 6 of Clubs, 5 of Hearts]</t>
+          <t>[4 of Clubs, 9 of Clubs, 1 of Clubs, 4 of Spades]</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -3975,19 +3972,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[8 of Hearts, Jack of Clubs]</t>
+          <t>[7 of Clubs, 4 of Hearts]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, 4 of Spades, 7 of Hearts]</t>
+          <t>[Queen of Clubs, 2 of Diamonds, 5 of Hearts]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -3998,39 +3995,39 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 9 of Hearts]</t>
+          <t>[9 of Clubs, 7 of Hearts]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[King of Diamonds, 9 of Clubs]</t>
+          <t>[2 of Clubs, 8 of Hearts, 6 of Diamonds, 5 of Diamonds]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 9 of Hearts]</t>
+          <t>[1 of Diamonds, 1 of Spades]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 10 of Hearts]</t>
+          <t>[10 of Hearts, 1 of Spades]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
         <v>21</v>
@@ -4044,19 +4041,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, 4 of Hearts]</t>
+          <t>[4 of Clubs, 7 of Spades]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[1 of Hearts, 3 of Clubs, 7 of Spades]</t>
+          <t>[Jack of Diamonds, 9 of Hearts]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -4067,134 +4064,134 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[1 of Spades, 9 of Diamonds]</t>
+          <t>[10 of Clubs, 7 of Clubs]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 8 of Clubs, King of Hearts]</t>
+          <t>[5 of Clubs, Jack of Hearts, Queen of Spades]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, King of Diamonds]</t>
+          <t>[7 of Hearts, Queen of Clubs]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 10 of Clubs, 5 of Spades]</t>
+          <t>[4 of Diamonds, 9 of Clubs, 6 of Hearts]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[3 of Spades, 1 of Diamonds]</t>
+          <t>[9 of Spades, Jack of Hearts]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, King of Clubs]</t>
+          <t>[3 of Clubs, 4 of Spades, Queen of Spades]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[5 of Clubs, 6 of Diamonds]</t>
+          <t>[Queen of Diamonds, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[6 of Clubs, 4 of Hearts, Jack of Diamonds]</t>
+          <t>[5 of Spades, Jack of Spades, 1 of Hearts, Queen of Hearts]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[4 of Spades, 3 of Spades]</t>
+          <t>[King of Diamonds, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 5 of Hearts, Queen of Hearts]</t>
+          <t>[2 of Spades, King of Spades, 9 of Hearts]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 10 of Spades]</t>
+          <t>[5 of Clubs, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 5 of Spades, 3 of Diamonds, 9 of Spades]</t>
+          <t>[King of Spades, 2 of Hearts, 9 of Spades]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -4205,19 +4202,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 2 of Diamonds]</t>
+          <t>[2 of Hearts, 4 of Diamonds]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[Queen of Spades, King of Clubs]</t>
+          <t>[10 of Hearts, 1 of Clubs]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -4228,39 +4225,39 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 1 of Hearts]</t>
+          <t>[2 of Diamonds, King of Hearts]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, King of Spades]</t>
+          <t>[3 of Diamonds, Jack of Spades, 6 of Clubs]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[8 of Hearts, 8 of Spades]</t>
+          <t>[5 of Spades, 3 of Diamonds]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[6 of Spades, 4 of Clubs, 2 of Clubs, 3 of Diamonds, 7 of Clubs]</t>
+          <t>[1 of Diamonds, 3 of Spades, 10 of Spades, 8 of Spades]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
         <v>22</v>
@@ -4274,19 +4271,19 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[10 of Spades, 2 of Clubs]</t>
+          <t>[6 of Hearts, King of Hearts]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, King of Hearts]</t>
+          <t>[8 of Spades, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -4297,16 +4294,16 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[9 of Spades, 9 of Clubs]</t>
+          <t>[King of Clubs, 3 of Spades]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, 8 of Clubs, 7 of Hearts]</t>
+          <t>[3 of Hearts, Queen of Hearts, Jack of Clubs]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D16" t="n">
         <v>23</v>
@@ -4320,42 +4317,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 4 of Clubs]</t>
+          <t>[1 of Hearts, Jack of Clubs]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, 7 of Clubs, 6 of Spades]</t>
+          <t>[1 of Clubs, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[8 of Spades, 6 of Clubs]</t>
+          <t>[3 of Hearts, 8 of Clubs]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[7 of Spades, 3 of Clubs, 6 of Diamonds, 7 of Diamonds]</t>
+          <t>[King of Clubs, 6 of Diamonds, King of Diamonds]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -4366,19 +4363,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[6 of Hearts, Queen of Diamonds]</t>
+          <t>[6 of Spades, 4 of Clubs]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 2 of Spades, 2 of Hearts, 10 of Diamonds]</t>
+          <t>[Jack of Diamonds, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -4389,16 +4386,16 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[2 of Spades, Queen of Spades]</t>
+          <t>[8 of Hearts, 5 of Diamonds]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 4 of Diamonds, 5 of Diamonds]</t>
+          <t>[9 of Diamonds, 10 of Spades]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" t="n">
         <v>19</v>
@@ -4412,23 +4409,23 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 10 of Clubs]</t>
+          <t>[2 of Spades, 8 of Clubs]</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 5 of Hearts, Jack of Hearts]</t>
+          <t>[4 of Spades, 6 of Clubs, 10 of Clubs]</t>
         </is>
       </c>
       <c r="C21" t="n">
+        <v>10</v>
+      </c>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="D21" t="n">
-        <v>25</v>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
@@ -4481,42 +4478,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 8 of Spades]</t>
+          <t>[Jack of Spades, 1 of Hearts]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, 1 of Hearts]</t>
+          <t>[9 of Hearts, Queen of Clubs]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, 3 of Diamonds]</t>
+          <t>[1 of Hearts, 5 of Spades]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[4 of Spades, 9 of Diamonds, 7 of Diamonds]</t>
+          <t>[9 of Clubs, King of Diamonds]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -4527,19 +4524,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[6 of Diamonds, 10 of Hearts]</t>
+          <t>[2 of Diamonds, 5 of Clubs]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[2 of Spades, 3 of Diamonds, 10 of Clubs, 6 of Hearts]</t>
+          <t>[King of Clubs, 7 of Clubs]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -4550,39 +4547,39 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, 6 of Diamonds]</t>
+          <t>[Queen of Diamonds, 9 of Clubs]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 10 of Diamonds]</t>
+          <t>[4 of Clubs, Queen of Spades, 9 of Spades]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, Queen of Diamonds]</t>
+          <t>[Queen of Spades, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[2 of Clubs, King of Diamonds, 9 of Hearts]</t>
+          <t>[4 of Spades, 10 of Spades, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
         <v>21</v>
@@ -4596,42 +4593,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 5 of Hearts]</t>
+          <t>[2 of Hearts, 4 of Diamonds]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 2 of Diamonds, 9 of Clubs, 1 of Spades, 7 of Clubs]</t>
+          <t>[1 of Diamonds, 5 of Spades, 8 of Diamonds, 3 of Spades]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 3 of Spades]</t>
+          <t>[9 of Diamonds, 3 of Hearts]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 1 of Clubs]</t>
+          <t>[Jack of Hearts, 4 of Hearts, 4 of Clubs]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -4642,42 +4639,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 8 of Clubs]</t>
+          <t>[3 of Spades, 8 of Clubs]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[King of Hearts, Jack of Spades]</t>
+          <t>[6 of Diamonds, 7 of Diamonds, 2 of Clubs, 10 of Hearts]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 7 of Spades]</t>
+          <t>[Jack of Clubs, 2 of Spades]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, Jack of Hearts, 5 of Diamonds]</t>
+          <t>[1 of Clubs, 6 of Spades]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -4688,19 +4685,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 2 of Hearts]</t>
+          <t>[8 of Spades, 2 of Spades]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[King of Spades, Queen of Clubs]</t>
+          <t>[Jack of Diamonds, 7 of Spades]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -4711,65 +4708,65 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 5 of Clubs]</t>
+          <t>[Jack of Hearts, 10 of Hearts]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[1 of Hearts, Jack of Hearts]</t>
+          <t>[5 of Clubs, 5 of Diamonds, 10 of Clubs]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, 5 of Spades]</t>
+          <t>[1 of Spades, 10 of Spades]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 3 of Clubs, 8 of Diamonds, 4 of Hearts]</t>
+          <t>[3 of Clubs, 6 of Diamonds, 7 of Hearts, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[4 of Spades, 10 of Spades]</t>
+          <t>[4 of Spades, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[King of Hearts, 10 of Diamonds]</t>
+          <t>[1 of Diamonds, 8 of Hearts]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -4780,161 +4777,161 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[King of Clubs, 6 of Hearts]</t>
+          <t>[4 of Diamonds, 6 of Hearts]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[6 of Clubs, 7 of Clubs, 8 of Hearts]</t>
+          <t>[6 of Spades, Jack of Diamonds, 6 of Clubs]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 6 of Spades]</t>
+          <t>[King of Diamonds, 8 of Hearts]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[9 of Spades, 7 of Spades, 3 of Spades]</t>
+          <t>[4 of Hearts, 3 of Diamonds, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[1 of Spades, King of Clubs]</t>
+          <t>[King of Hearts, 2 of Clubs]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[6 of Clubs, 5 of Clubs, Jack of Diamonds]</t>
+          <t>[8 of Clubs, 8 of Spades, 9 of Spades]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[3 of Clubs, 5 of Hearts]</t>
+          <t>[King of Hearts, 7 of Clubs]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[9 of Hearts, 1 of Diamonds]</t>
+          <t>[2 of Hearts, 3 of Clubs, 10 of Diamonds, 2 of Diamonds]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 1 of Clubs]</t>
+          <t>[Jack of Clubs, 1 of Spades]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[8 of Clubs, King of Spades]</t>
+          <t>[King of Clubs, 3 of Diamonds, 7 of Spades]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[6 of Spades, 9 of Spades]</t>
+          <t>[Queen of Clubs, 3 of Hearts]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[2 of Spades, 4 of Diamonds, 8 of Diamonds, 2 of Diamonds, King of Diamonds]</t>
+          <t>[Queen of Hearts, 6 of Hearts, 5 of Hearts]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 10 of Spades]</t>
+          <t>[7 of Hearts, King of Spades]</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, 8 of Spades]</t>
+          <t>[Queen of Hearts, 5 of Hearts, 9 of Hearts]</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -4949,7 +4946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4987,88 +4984,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 2 of Spades]</t>
+          <t>[6 of Clubs, 10 of Hearts]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[6 of Diamonds, 10 of Clubs, 10 of Diamonds]</t>
+          <t>[9 of Spades, 1 of Hearts]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[8 of Spades, 10 of Hearts]</t>
+          <t>[8 of Hearts, King of Spades]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[3 of Clubs, 3 of Clubs, 1 of Spades]</t>
+          <t>[4 of Spades, King of Clubs, 5 of Spades]</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, King of Clubs]</t>
+          <t>[9 of Diamonds, 8 of Spades]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[6 of Spades, King of Diamonds, 10 of Hearts]</t>
+          <t>[King of Hearts, King of Clubs]</t>
         </is>
       </c>
       <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
         <v>20</v>
       </c>
-      <c r="D4" t="n">
-        <v>26</v>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[1 of Clubs, Queen of Hearts]</t>
+          <t>[1 of Diamonds, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[6 of Spades, Jack of Spades, 5 of Clubs]</t>
+          <t>[8 of Spades, 10 of Hearts]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -5079,88 +5076,88 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 10 of Spades]</t>
+          <t>[Jack of Hearts, 9 of Clubs]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[5 of Clubs, 2 of Diamonds, 8 of Hearts, 5 of Spades]</t>
+          <t>[Queen of Hearts, 3 of Spades, 3 of Clubs, 2 of Spades]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, Jack of Clubs]</t>
+          <t>[3 of Spades, 9 of Hearts]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, 5 of Hearts, 7 of Hearts]</t>
+          <t>[8 of Diamonds, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 9 of Diamonds]</t>
+          <t>[4 of Hearts, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[7 of Spades, Queen of Clubs]</t>
+          <t>[Queen of Hearts, 6 of Hearts, 10 of Spades]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[10 of Clubs, 9 of Spades]</t>
+          <t>[2 of Diamonds, 4 of Clubs]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[6 of Clubs, 8 of Spades, Queen of Diamonds]</t>
+          <t>[6 of Hearts, 7 of Spades, Queen of Clubs]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -5171,88 +5168,88 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 7 of Diamonds]</t>
+          <t>[1 of Spades, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[8 of Clubs, Jack of Spades]</t>
+          <t>[Jack of Spades, 7 of Clubs]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[9 of Hearts, 5 of Diamonds]</t>
+          <t>[Jack of Diamonds, 1 of Hearts]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[1 of Hearts, 4 of Clubs, 3 of Spades]</t>
+          <t>[7 of Hearts, 8 of Clubs, 5 of Spades]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 4 of Spades]</t>
+          <t>[8 of Clubs, 3 of Diamonds]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, Jack of Hearts]</t>
+          <t>[5 of Hearts, Jack of Hearts, King of Spades]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, King of Hearts]</t>
+          <t>[1 of Clubs, 4 of Clubs]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, 4 of Hearts, 6 of Diamonds]</t>
+          <t>[4 of Diamonds, Jack of Clubs, 9 of Spades]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -5263,111 +5260,111 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, 8 of Clubs]</t>
+          <t>[2 of Clubs, 2 of Spades]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, King of Hearts, 2 of Clubs, 7 of Clubs]</t>
+          <t>[2 of Diamonds, 1 of Clubs, 7 of Clubs]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[9 of Spades, King of Spades]</t>
+          <t>[10 of Clubs, 1 of Diamonds]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[King of Clubs, 1 of Spades]</t>
+          <t>[6 of Spades, 2 of Hearts, 3 of Hearts, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D15" t="n">
         <v>21</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 6 of Clubs]</t>
+          <t>[7 of Spades, Jack of Spades]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 5 of Diamonds, 7 of Spades]</t>
+          <t>[Queen of Spades, 3 of Clubs, 9 of Hearts]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, Queen of Clubs]</t>
+          <t>[8 of Hearts, King of Diamonds]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[4 of Hearts, Queen of Diamonds, 3 of Hearts]</t>
+          <t>[2 of Hearts, 6 of Clubs, 10 of Spades]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, 6 of Hearts]</t>
+          <t>[8 of Diamonds, 4 of Hearts]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 3 of Diamonds, 2 of Diamonds, 5 of Hearts]</t>
+          <t>[Queen of Spades, Queen of Clubs]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -5378,19 +5375,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, Queen of Hearts]</t>
+          <t>[4 of Spades, 5 of Clubs]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[4 of Spades, 3 of Hearts, 9 of Hearts, King of Diamonds]</t>
+          <t>[6 of Diamonds, 5 of Clubs, 5 of Hearts, 7 of Hearts]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -5401,19 +5398,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 8 of Hearts]</t>
+          <t>[10 of Clubs, Jack of Clubs]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[7 of Clubs, Queen of Spades]</t>
+          <t>[9 of Clubs, 6 of Diamonds, King of Diamonds]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -5424,19 +5421,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[3 of Spades, 1 of Hearts]</t>
+          <t>[5 of Diamonds, 4 of Diamonds]</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[5 of Spades, 4 of Clubs, 10 of Spades]</t>
+          <t>[7 of Diamonds, 1 of Spades]</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -5444,7 +5441,6 @@
         </is>
       </c>
     </row>
-    <row r="22"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/brute_force/always_stand_results/always_stand_results.xlsx
+++ b/src/brute_force/always_stand_results/always_stand_results.xlsx
@@ -491,88 +491,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[6 of Clubs, 3 of Spades]</t>
+          <t>[1 of Clubs, Queen of Hearts]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[4 of Spades, King of Hearts, 5 of Diamonds]</t>
+          <t>[8 of Diamonds, 8 of Clubs, 3 of Spades]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
         <v>19</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[3 of Clubs, 6 of Diamonds]</t>
+          <t>[1 of Hearts, 9 of Hearts]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 7 of Diamonds, 4 of Hearts]</t>
+          <t>[8 of Clubs, 8 of Spades, Jack of Clubs]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 5 of Clubs]</t>
+          <t>[King of Diamonds, 4 of Spades]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[1 of Hearts, 4 of Diamonds, 4 of Clubs]</t>
+          <t>[10 of Diamonds, 6 of Clubs, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 7 of Spades]</t>
+          <t>[3 of Clubs, 2 of Diamonds]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[9 of Hearts, 7 of Diamonds, Queen of Diamonds]</t>
+          <t>[3 of Diamonds, 9 of Clubs, 10 of Spades]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -583,19 +583,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, 4 of Spades]</t>
+          <t>[6 of Hearts, 7 of Hearts]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[3 of Hearts, Queen of Clubs, 5 of Spades]</t>
+          <t>[King of Diamonds, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -606,19 +606,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[King of Spades, Jack of Diamonds]</t>
+          <t>[5 of Diamonds, 4 of Spades]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[7 of Spades, 1 of Clubs]</t>
+          <t>[5 of Spades, 9 of Clubs, King of Clubs]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -629,65 +629,65 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[7 of Hearts, King of Clubs]</t>
+          <t>[5 of Spades, 4 of Hearts]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[1 of Spades, 6 of Diamonds]</t>
+          <t>[2 of Hearts, Jack of Diamonds, 7 of Clubs]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 2 of Spades]</t>
+          <t>[Queen of Clubs, 2 of Clubs]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[2 of Clubs, King of Clubs, 5 of Clubs]</t>
+          <t>[6 of Hearts, Queen of Diamonds, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[8 of Clubs, Queen of Spades]</t>
+          <t>[1 of Spades, 9 of Hearts]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, 9 of Spades, King of Hearts]</t>
+          <t>[5 of Clubs, King of Spades, Jack of Spades]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -698,19 +698,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, 1 of Spades]</t>
+          <t>[8 of Hearts, Jack of Hearts]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 10 of Clubs, Jack of Spades]</t>
+          <t>[5 of Clubs, 10 of Diamonds, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -721,19 +721,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[8 of Spades, 7 of Clubs]</t>
+          <t>[9 of Spades, 5 of Diamonds]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 5 of Spades, King of Diamonds]</t>
+          <t>[7 of Clubs, 7 of Diamonds, 1 of Diamonds, 7 of Spades]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -744,19 +744,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[6 of Clubs, 10 of Spades]</t>
+          <t>[7 of Spades, 2 of Spades]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 8 of Hearts, 8 of Diamonds]</t>
+          <t>[King of Hearts, 2 of Clubs, 5 of Hearts]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -767,88 +767,88 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 6 of Spades]</t>
+          <t>[Jack of Hearts, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 5 of Hearts, 2 of Hearts]</t>
+          <t>[4 of Diamonds, 6 of Clubs, 3 of Spades, 4 of Diamonds]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
         <v>17</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[9 of Spades, 6 of Hearts]</t>
+          <t>[3 of Diamonds, 3 of Hearts]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 10 of Spades, 2 of Clubs, 1 of Hearts, 10 of Diamonds]</t>
+          <t>[King of Hearts, Queen of Spades]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 9 of Diamonds]</t>
+          <t>[9 of Diamonds, 6 of Spades]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[9 of Hearts, Queen of Hearts]</t>
+          <t>[2 of Hearts, Queen of Hearts, 4 of Clubs, Jack of Spades]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, Jack of Hearts]</t>
+          <t>[Queen of Clubs, 1 of Hearts]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[3 of Clubs, 3 of Spades, King of Spades, 8 of Clubs]</t>
+          <t>[9 of Spades, King of Clubs]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D17" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -859,42 +859,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 2 of Diamonds]</t>
+          <t>[10 of Hearts, 3 of Clubs]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 8 of Hearts]</t>
+          <t>[10 of Hearts, 4 of Clubs, 10 of Clubs]</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>13</v>
       </c>
       <c r="D18" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[5 of Hearts, 6 of Spades]</t>
+          <t>[6 of Spades, 7 of Hearts]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 1 of Diamonds, Queen of Hearts, Jack of Spades]</t>
+          <t>[2 of Spades, 6 of Diamonds, 3 of Hearts, 1 of Diamonds, King of Spades]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -905,23 +905,23 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 7 of Clubs]</t>
+          <t>[Queen of Spades, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, 2 of Spades, Queen of Clubs]</t>
+          <t>[10 of Clubs, 1 of Spades]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
@@ -932,6 +932,519 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player Hand</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Hand</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Player Total</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer Total</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>[3 of Hearts, 8 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[Queen of Hearts, 8 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>[5 of Hearts, 9 of Spades]</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[1 of Spades, Jack of Diamonds]</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>[5 of Spades, 6 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[4 of Diamonds, 2 of Clubs, 8 of Hearts, 10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>[Queen of Clubs, 1 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[Jack of Clubs, 6 of Diamonds, 6 of Spades]</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>[1 of Hearts, Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[2 of Diamonds, 7 of Diamonds, 6 of Hearts, 5 of Spades]</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>[9 of Hearts, Jack of Hearts]</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[7 of Diamonds, 9 of Diamonds, 3 of Spades]</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Tie</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[3 of Clubs, 2 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[3 of Hearts, 8 of Spades, Jack of Spades]</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>[7 of Hearts, 4 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[4 of Spades, 5 of Hearts, 5 of Diamonds, 8 of Spades]</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>[1 of Clubs, 9 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[7 of Hearts, 9 of Hearts, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" t="n">
+        <v>26</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>[6 of Spades, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[King of Spades, Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>[1 of Clubs, 1 of Spades]</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[9 of Diamonds, 8 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>12</v>
+      </c>
+      <c r="D12" t="n">
+        <v>17</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>[4 of Hearts, 10 of Spades]</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[7 of Spades, 3 of Diamonds, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>[2 of Clubs, 6 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[3 of Diamonds, Queen of Clubs, 2 of Hearts, 1 of Diamonds, 3 of Spades]</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" t="n">
+        <v>19</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[7 of Clubs, 10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[Queen of Spades, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>17</v>
+      </c>
+      <c r="D15" t="n">
+        <v>20</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[6 of Hearts, Queen of Spades]</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[4 of Clubs, King of Hearts, King of Spades]</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>16</v>
+      </c>
+      <c r="D16" t="n">
+        <v>24</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[2 of Spades, Jack of Hearts]</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[10 of Clubs, 8 of Hearts]</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>18</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[10 of Spades, 4 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[King of Hearts, Jack of Spades]</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>14</v>
+      </c>
+      <c r="D18" t="n">
+        <v>20</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>[Queen of Diamonds, 3 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[4 of Spades, 9 of Spades, 9 of Clubs]</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>13</v>
+      </c>
+      <c r="D19" t="n">
+        <v>22</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>[Jack of Diamonds, 4 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[7 of Clubs, 5 of Clubs, 5 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>14</v>
+      </c>
+      <c r="D20" t="n">
+        <v>17</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>[10 of Clubs, 6 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[King of Diamonds, King of Diamonds]</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>16</v>
+      </c>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -975,65 +1488,65 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 3 of Clubs]</t>
+          <t>[3 of Hearts, 7 of Spades]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 2 of Hearts, 9 of Diamonds, King of Diamonds]</t>
+          <t>[Jack of Clubs, Jack of Spades]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 2 of Clubs]</t>
+          <t>[7 of Clubs, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, 10 of Clubs]</t>
+          <t>[5 of Diamonds, Queen of Clubs, Queen of Hearts]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 9 of Hearts]</t>
+          <t>[4 of Diamonds, 2 of Clubs]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 4 of Spades, 5 of Hearts, 10 of Diamonds]</t>
+          <t>[9 of Hearts, 6 of Spades, 10 of Hearts]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1044,19 +1557,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[8 of Spades, 8 of Diamonds]</t>
+          <t>[King of Spades, 6 of Spades]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, King of Diamonds]</t>
+          <t>[5 of Clubs, Jack of Diamonds, 6 of Clubs]</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1067,16 +1580,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[6 of Clubs, 8 of Spades]</t>
+          <t>[10 of Clubs, Jack of Hearts]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 7 of Spades, 7 of Clubs]</t>
+          <t>[3 of Clubs, 1 of Clubs, 7 of Clubs]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
         <v>21</v>
@@ -1090,19 +1603,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[King of Clubs, 5 of Clubs]</t>
+          <t>[4 of Hearts, 1 of Hearts]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[6 of Spades, Jack of Diamonds, 8 of Diamonds]</t>
+          <t>[2 of Diamonds, 7 of Spades, 4 of Diamonds, Queen of Clubs]</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1113,19 +1626,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 6 of Hearts]</t>
+          <t>[Jack of Clubs, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, 4 of Hearts, King of Clubs]</t>
+          <t>[Queen of Spades, 1 of Spades]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1136,39 +1649,39 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, 3 of Diamonds]</t>
+          <t>[King of Clubs, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 2 of Diamonds, 10 of Hearts, 3 of Spades]</t>
+          <t>[4 of Clubs, 2 of Clubs, Queen of Hearts, 6 of Clubs]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, Queen of Spades]</t>
+          <t>[1 of Clubs, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[9 of Spades, 8 of Clubs]</t>
+          <t>[7 of Hearts, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
         <v>17</v>
@@ -1182,19 +1695,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 10 of Clubs]</t>
+          <t>[5 of Spades, 2 of Hearts]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 1 of Hearts]</t>
+          <t>[5 of Hearts, 5 of Hearts, 4 of Spades, 3 of Diamonds]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1205,16 +1718,16 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[King of Hearts, Jack of Clubs]</t>
+          <t>[2 of Spades, 2 of Diamonds]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[8 of Hearts, 6 of Clubs, Queen of Diamonds]</t>
+          <t>[9 of Clubs, 6 of Hearts, 9 of Hearts]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>24</v>
@@ -1228,65 +1741,65 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 3 of Spades]</t>
+          <t>[King of Diamonds, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[8 of Hearts, 2 of Spades, 5 of Spades, 1 of Diamonds, Queen of Diamonds]</t>
+          <t>[1 of Spades, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[8 of Clubs, 2 of Clubs]</t>
+          <t>[1 of Diamonds, 8 of Spades]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 5 of Spades, King of Spades]</t>
+          <t>[1 of Diamonds, 4 of Spades, 5 of Diamonds]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[7 of Spades, 9 of Clubs]</t>
+          <t>[5 of Spades, Jack of Hearts]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[9 of Clubs, Jack of Spades]</t>
+          <t>[4 of Clubs, 4 of Hearts, 6 of Hearts, 3 of Spades]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1297,42 +1810,42 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 9 of Hearts]</t>
+          <t>[7 of Hearts, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[King of Spades, 5 of Diamonds, 1 of Clubs, 10 of Spades]</t>
+          <t>[2 of Hearts, 9 of Clubs, King of Hearts]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, 3 of Diamonds]</t>
+          <t>[King of Spades, 2 of Spades]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 9 of Diamonds, 2 of Spades, 3 of Hearts]</t>
+          <t>[Queen of Spades, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1343,42 +1856,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 1 of Spades]</t>
+          <t>[6 of Diamonds, King of Diamonds]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[1 of Hearts, 3 of Clubs, 1 of Diamonds, Jack of Spades, 5 of Clubs]</t>
+          <t>[5 of Clubs, Jack of Spades, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, 6 of Diamonds]</t>
+          <t>[8 of Clubs, 3 of Hearts]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[5 of Hearts, 9 of Spades, 6 of Diamonds]</t>
+          <t>[9 of Spades, King of Hearts]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1389,16 +1902,16 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 10 of Spades]</t>
+          <t>[8 of Hearts, 8 of Hearts]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[7 of Clubs, 6 of Spades, Queen of Hearts]</t>
+          <t>[10 of Spades, 3 of Spades, 10 of Spades]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D20" t="n">
         <v>23</v>
@@ -1410,18 +1923,34 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>[9 of Spades, Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[9 of Diamonds, 8 of Spades]</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>17</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1465,16 +1994,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[King of Diamonds, 6 of Hearts]</t>
+          <t>[4 of Clubs, King of Hearts]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, 8 of Diamonds, 6 of Diamonds]</t>
+          <t>[9 of Clubs, 8 of Spades]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
         <v>17</v>
@@ -1488,16 +2017,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, Jack of Spades]</t>
+          <t>[Queen of Spades, 8 of Clubs]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 8 of Clubs, 4 of Spades, 9 of Hearts]</t>
+          <t>[3 of Spades, 8 of Clubs, 3 of Hearts, 2 of Hearts, 8 of Hearts]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
         <v>24</v>
@@ -1511,19 +2040,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[10 of Spades, 9 of Clubs]</t>
+          <t>[King of Hearts, 7 of Hearts]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 6 of Spades, 2 of Spades, 6 of Clubs]</t>
+          <t>[5 of Diamonds, 3 of Diamonds, Queen of Hearts]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1534,88 +2063,88 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 7 of Spades]</t>
+          <t>[9 of Spades, King of Clubs]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, King of Spades, 1 of Clubs, 3 of Hearts, 2 of Hearts]</t>
+          <t>[Queen of Hearts, 2 of Spades, 5 of Hearts]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[7 of Clubs, Jack of Clubs]</t>
+          <t>[6 of Spades, 1 of Hearts]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 4 of Spades, 3 of Diamonds]</t>
+          <t>[9 of Hearts, 6 of Clubs, 4 of Hearts]</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 10 of Hearts]</t>
+          <t>[King of Spades, 3 of Diamonds]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, 5 of Hearts, 3 of Spades]</t>
+          <t>[7 of Spades, 3 of Clubs, 9 of Hearts]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
         <v>19</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 4 of Clubs]</t>
+          <t>[9 of Spades, 4 of Diamonds]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 7 of Spades, 8 of Hearts]</t>
+          <t>[7 of Spades, 4 of Hearts, King of Clubs]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1626,19 +2155,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[King of Diamonds, King of Hearts]</t>
+          <t>[1 of Spades, King of Diamonds]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[3 of Spades, King of Clubs, 5 of Spades]</t>
+          <t>[3 of Spades, 4 of Spades, 10 of Spades]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1649,12 +2178,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[King of Clubs, 5 of Clubs]</t>
+          <t>[Jack of Diamonds, 5 of Clubs]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[6 of Diamonds, 9 of Hearts, 6 of Clubs]</t>
+          <t>[1 of Hearts, 5 of Clubs, 10 of Clubs, 5 of Hearts]</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1672,19 +2201,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, Jack of Hearts]</t>
+          <t>[7 of Diamonds, 10 of Spades]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 10 of Diamonds, 8 of Diamonds]</t>
+          <t>[9 of Diamonds, Jack of Hearts]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1695,19 +2224,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, 10 of Hearts]</t>
+          <t>[2 of Spades, 1 of Clubs]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 1 of Spades, Jack of Diamonds, 4 of Hearts]</t>
+          <t>[9 of Diamonds, 3 of Hearts, 2 of Clubs, 1 of Diamonds, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1718,19 +2247,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[5 of Clubs, 10 of Clubs]</t>
+          <t>[6 of Hearts, 6 of Spades]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[King of Hearts, Queen of Hearts]</t>
+          <t>[8 of Spades, Jack of Spades]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1741,19 +2270,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[2 of Clubs, Queen of Hearts]</t>
+          <t>[2 of Hearts, 2 of Diamonds]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 7 of Diamonds]</t>
+          <t>[Queen of Spades, 7 of Hearts]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1764,65 +2293,65 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[8 of Spades, 7 of Hearts]</t>
+          <t>[10 of Hearts, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[1 of Spades, 10 of Spades]</t>
+          <t>[King of Spades, 4 of Diamonds, King of Diamonds]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, 9 of Spades]</t>
+          <t>[7 of Clubs, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 5 of Spades, 8 of Spades]</t>
+          <t>[3 of Clubs, 8 of Diamonds, 5 of Diamonds, 2 of Diamonds]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 5 of Hearts]</t>
+          <t>[4 of Clubs, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 6 of Spades, 1 of Hearts, Queen of Diamonds]</t>
+          <t>[8 of Hearts, 4 of Spades, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1833,42 +2362,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[8 of Clubs, 10 of Clubs]</t>
+          <t>[10 of Clubs, 6 of Hearts]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[9 of Spades, Queen of Clubs]</t>
+          <t>[9 of Clubs, 7 of Diamonds, 7 of Clubs]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 8 of Hearts]</t>
+          <t>[Queen of Clubs, 1 of Clubs]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 2 of Spades, 3 of Clubs, King of Spades]</t>
+          <t>[2 of Clubs, 10 of Diamonds, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1879,527 +2408,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[7 of Clubs, 1 of Diamonds]</t>
+          <t>[10 of Hearts, Jack of Clubs]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, 5 of Diamonds, 2 of Diamonds, 1 of Hearts, Jack of Clubs]</t>
+          <t>[8 of Diamonds, 5 of Spades, Jack of Clubs]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E20" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Player Hand</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Dealer Hand</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Player Total</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dealer Total</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>[Queen of Spades, 5 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[2 of Spades, 7 of Diamonds, 3 of Clubs, 2 of Clubs, 5 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>[6 of Spades, 7 of Spades]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[9 of Hearts, 4 of Hearts, 6 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>[1 of Spades, Queen of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[8 of Clubs, 4 of Clubs, 5 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>[Jack of Spades, 10 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[Jack of Clubs, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>[7 of Hearts, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[8 of Hearts, 1 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>19</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>[1 of Hearts, 5 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[6 of Clubs, Jack of Clubs, 3 of Spades]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>16</v>
-      </c>
-      <c r="D7" t="n">
-        <v>19</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>[3 of Hearts, 2 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[2 of Clubs, 8 of Spades, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>[2 of Diamonds, Jack of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[King of Diamonds, 9 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>12</v>
-      </c>
-      <c r="D9" t="n">
-        <v>19</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>[10 of Hearts, 7 of Spades]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[Queen of Hearts, 4 of Clubs, 3 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>17</v>
-      </c>
-      <c r="D10" t="n">
-        <v>17</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Tie</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>[7 of Hearts, 2 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[3 of Spades, 3 of Hearts, Queen of Clubs, King of Spades]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>26</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>[King of Hearts, 1 of Spades]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[1 of Clubs, 3 of Diamonds, 10 of Hearts, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>21</v>
-      </c>
-      <c r="D12" t="n">
-        <v>23</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>[Jack of Spades, 5 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[8 of Hearts, Queen of Clubs]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>15</v>
-      </c>
-      <c r="D13" t="n">
-        <v>18</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>[7 of Clubs, 10 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[4 of Diamonds, 4 of Diamonds, 8 of Diamonds, 5 of Spades]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>17</v>
-      </c>
-      <c r="D14" t="n">
-        <v>21</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>[King of Clubs, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[10 of Clubs, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>20</v>
-      </c>
-      <c r="D15" t="n">
-        <v>20</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Tie</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>[10 of Diamonds, 9 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[9 of Diamonds, 1 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>19</v>
-      </c>
-      <c r="D16" t="n">
-        <v>20</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>[King of Hearts, 5 of Spades]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[4 of Spades, 9 of Clubs, 4 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>15</v>
-      </c>
-      <c r="D17" t="n">
-        <v>17</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>[5 of Clubs, 1 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[10 of Spades, 6 of Diamonds, 8 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>16</v>
-      </c>
-      <c r="D18" t="n">
-        <v>24</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>[Jack of Diamonds, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[3 of Clubs, 7 of Diamonds, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>18</v>
-      </c>
-      <c r="D19" t="n">
-        <v>19</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>[4 of Spades, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[2 of Hearts, 8 of Spades, 1 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>14</v>
-      </c>
-      <c r="D20" t="n">
-        <v>21</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>[6 of Hearts, 2 of Spades]</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>[King of Spades, 6 of Clubs, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>8</v>
-      </c>
-      <c r="D21" t="n">
-        <v>26</v>
-      </c>
-      <c r="E21" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
@@ -2454,88 +2477,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[3 of Spades, 1 of Diamonds]</t>
+          <t>[8 of Spades, 7 of Spades]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[10 of Hearts, King of Clubs]</t>
+          <t>[6 of Spades, 9 of Spades, 10 of Spades]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[King of Diamonds, King of Clubs]</t>
+          <t>[6 of Hearts, 8 of Spades]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 7 of Hearts]</t>
+          <t>[1 of Spades, 2 of Hearts, 7 of Spades]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 8 of Clubs]</t>
+          <t>[2 of Spades, 10 of Hearts]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 6 of Spades, Jack of Diamonds]</t>
+          <t>[7 of Hearts, 4 of Clubs, 1 of Spades, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[4 of Hearts, King of Diamonds]</t>
+          <t>[5 of Hearts, 4 of Diamonds]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, 10 of Hearts]</t>
+          <t>[Queen of Spades, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2546,16 +2569,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[5 of Hearts, King of Hearts]</t>
+          <t>[2 of Clubs, 6 of Clubs]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[1 of Spades, 6 of Diamonds]</t>
+          <t>[King of Diamonds, 4 of Hearts, 3 of Diamonds]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
         <v>17</v>
@@ -2569,88 +2592,88 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, Jack of Spades]</t>
+          <t>[Queen of Spades, King of Clubs]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[10 of Spades, 6 of Clubs, Queen of Diamonds]</t>
+          <t>[Jack of Spades, 3 of Clubs, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, 3 of Clubs]</t>
+          <t>[1 of Hearts, 8 of Clubs]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 9 of Clubs]</t>
+          <t>[3 of Hearts, 5 of Clubs, 1 of Diamonds]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[4 of Spades, 4 of Clubs]</t>
+          <t>[10 of Clubs, 4 of Hearts]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 7 of Spades, Queen of Spades]</t>
+          <t>[Queen of Hearts, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 2 of Spades]</t>
+          <t>[4 of Clubs, 9 of Hearts]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, 10 of Clubs, 10 of Clubs]</t>
+          <t>[King of Clubs, 5 of Clubs, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -2661,19 +2684,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[3 of Clubs, 7 of Diamonds]</t>
+          <t>[3 of Spades, 9 of Spades]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, 8 of Hearts]</t>
+          <t>[8 of Hearts, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2684,134 +2707,134 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 6 of Diamonds]</t>
+          <t>[Jack of Clubs, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, 5 of Hearts, 2 of Clubs, 8 of Clubs]</t>
+          <t>[6 of Hearts, 6 of Clubs, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[4 of Spades, 2 of Hearts]</t>
+          <t>[9 of Clubs, 10 of Clubs]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 8 of Spades, 9 of Spades]</t>
+          <t>[6 of Spades, Jack of Spades, Jack of Hearts]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, Queen of Hearts]</t>
+          <t>[King of Spades, Queen of Clubs]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[3 of Spades, King of Spades, Queen of Clubs]</t>
+          <t>[9 of Hearts, 1 of Diamonds]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 7 of Spades]</t>
+          <t>[3 of Clubs, 4 of Spades]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 7 of Hearts, 9 of Hearts]</t>
+          <t>[2 of Clubs, Queen of Diamonds, 2 of Diamonds, 2 of Spades, 2 of Diamonds]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, King of Hearts]</t>
+          <t>[Jack of Hearts, 8 of Hearts]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 1 of Hearts, 1 of Spades, 4 of Clubs]</t>
+          <t>[1 of Clubs, Jack of Clubs]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[10 of Spades, 9 of Spades]</t>
+          <t>[9 of Clubs, 4 of Diamonds]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, 5 of Spades, 6 of Clubs]</t>
+          <t>[5 of Diamonds, 10 of Diamonds, 5 of Hearts]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2822,19 +2845,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[4 of Hearts, Queen of Clubs]</t>
+          <t>[3 of Spades, 2 of Hearts]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 5 of Spades, 5 of Diamonds]</t>
+          <t>[7 of Clubs, King of Diamonds]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2845,19 +2868,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[3 of Hearts, King of Spades]</t>
+          <t>[King of Hearts, 10 of Spades]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[5 of Clubs, 5 of Clubs, 6 of Spades, 7 of Clubs]</t>
+          <t>[6 of Diamonds, Queen of Hearts, King of Hearts]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2868,19 +2891,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[9 of Hearts, 1 of Clubs]</t>
+          <t>[3 of Hearts, 7 of Clubs]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[1 of Hearts, 8 of Diamonds]</t>
+          <t>[3 of Diamonds, 7 of Diamonds, 5 of Diamonds, Queen of Clubs]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2891,16 +2914,16 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 8 of Spades]</t>
+          <t>[6 of Diamonds, 10 of Hearts]</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[7 of Clubs, 6 of Hearts, 8 of Diamonds]</t>
+          <t>[1 of Clubs, King of Spades]</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D21" t="n">
         <v>21</v>
@@ -2960,19 +2983,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[10 of Clubs, 8 of Hearts]</t>
+          <t>[4 of Spades, King of Clubs]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 9 of Spades, 1 of Clubs, 1 of Spades, 8 of Diamonds]</t>
+          <t>[2 of Spades, 6 of Diamonds, Queen of Clubs]</t>
         </is>
       </c>
       <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
         <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -2983,42 +3006,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 3 of Clubs]</t>
+          <t>[9 of Diamonds, King of Diamonds]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 1 of Clubs]</t>
+          <t>[4 of Hearts, 5 of Diamonds, 6 of Hearts, King of Spades]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[10 of Spades, 9 of Clubs]</t>
+          <t>[Jack of Hearts, 3 of Clubs]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[10 of Hearts, Jack of Hearts]</t>
+          <t>[6 of Diamonds, 8 of Hearts, 3 of Spades]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -3029,19 +3052,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[5 of Clubs, 10 of Diamonds]</t>
+          <t>[7 of Hearts, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[8 of Spades, 9 of Diamonds]</t>
+          <t>[2 of Diamonds, Jack of Hearts, 1 of Diamonds, 6 of Hearts]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -3052,88 +3075,88 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[King of Hearts, Jack of Diamonds]</t>
+          <t>[1 of Clubs, 2 of Diamonds]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 1 of Diamonds]</t>
+          <t>[Queen of Diamonds, 2 of Hearts, 4 of Spades, 6 of Spades]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 10 of Spades]</t>
+          <t>[8 of Spades, 1 of Clubs]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 5 of Diamonds, 6 of Hearts]</t>
+          <t>[10 of Spades, King of Spades]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[6 of Clubs, 7 of Diamonds]</t>
+          <t>[Queen of Spades, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[8 of Spades, Queen of Hearts]</t>
+          <t>[3 of Diamonds, 10 of Hearts, King of Hearts]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[5 of Hearts, 3 of Hearts]</t>
+          <t>[Jack of Diamonds, 9 of Spades]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[1 of Spades, Jack of Spades]</t>
+          <t>[8 of Clubs, 2 of Spades, King of Diamonds]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -3144,39 +3167,39 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[6 of Clubs, 5 of Spades]</t>
+          <t>[Queen of Spades, 9 of Hearts]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 5 of Spades, 3 of Spades]</t>
+          <t>[10 of Diamonds, 7 of Spades]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
         <v>17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[3 of Clubs, King of Clubs]</t>
+          <t>[3 of Hearts, 6 of Clubs]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[King of Hearts, 5 of Diamonds, 2 of Spades]</t>
+          <t>[8 of Diamonds, 9 of Clubs]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
         <v>17</v>
@@ -3190,42 +3213,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[8 of Hearts, 3 of Diamonds]</t>
+          <t>[2 of Clubs, 2 of Hearts]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[King of Spades, 7 of Clubs]</t>
+          <t>[5 of Hearts, 8 of Clubs, 3 of Diamonds, Jack of Clubs]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[9 of Clubs, Queen of Diamonds]</t>
+          <t>[4 of Clubs, 4 of Diamonds]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[4 of Spades, Queen of Hearts, 6 of Spades]</t>
+          <t>[Queen of Diamonds, 3 of Hearts, 5 of Hearts]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3236,65 +3259,65 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[5 of Clubs, King of Spades]</t>
+          <t>[7 of Hearts, 1 of Hearts]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[9 of Hearts, 1 of Diamonds]</t>
+          <t>[5 of Clubs, 2 of Clubs, 1 of Spades]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[King of Diamonds, 7 of Diamonds]</t>
+          <t>[10 of Hearts, Jack of Spades]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[7 of Spades, 3 of Diamonds, 6 of Spades, 4 of Spades]</t>
+          <t>[King of Hearts, 9 of Spades]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[7 of Hearts, Queen of Spades]</t>
+          <t>[7 of Clubs, 1 of Hearts]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 4 of Diamonds, Jack of Clubs, 3 of Hearts]</t>
+          <t>[9 of Hearts, 1 of Diamonds]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3305,62 +3328,62 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 7 of Spades]</t>
+          <t>[10 of Clubs, 3 of Spades]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[10 of Clubs, 2 of Diamonds, 2 of Clubs, Queen of Clubs]</t>
+          <t>[1 of Spades, 5 of Spades, 8 of Hearts, 5 of Spades]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D17" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[8 of Clubs, 8 of Clubs]</t>
+          <t>[8 of Spades, 4 of Hearts]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[9 of Hearts, 9 of Spades]</t>
+          <t>[5 of Diamonds, Jack of Diamonds, King of Clubs]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 2 of Spades]</t>
+          <t>[Queen of Hearts, 4 of Diamonds]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[1 of Hearts, 6 of Diamonds]</t>
+          <t>[5 of Clubs, 3 of Clubs, 9 of Clubs]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
         <v>17</v>
@@ -3374,42 +3397,42 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[King of Clubs, Queen of Clubs]</t>
+          <t>[Jack of Spades, 4 of Clubs]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[5 of Hearts, 8 of Diamonds, 2 of Diamonds, King of Diamonds]</t>
+          <t>[7 of Diamonds, Queen of Hearts]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D20" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 4 of Hearts]</t>
+          <t>[7 of Spades, Queen of Clubs]</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 3 of Spades, 2 of Hearts, Jack of Spades]</t>
+          <t>[Jack of Clubs, 10 of Spades]</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -3466,19 +3489,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[2 of Spades, 8 of Clubs]</t>
+          <t>[5 of Hearts, 2 of Diamonds]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[1 of Spades, Queen of Diamonds]</t>
+          <t>[3 of Diamonds, 2 of Spades, 7 of Spades, 7 of Spades]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -3489,19 +3512,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[10 of Diamonds, 5 of Diamonds]</t>
+          <t>[King of Spades, 1 of Diamonds]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[3 of Spades, Jack of Hearts, King of Diamonds]</t>
+          <t>[King of Spades, Queen of Hearts]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -3512,19 +3535,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 1 of Hearts]</t>
+          <t>[6 of Diamonds, 5 of Diamonds]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[7 of Clubs, 1 of Diamonds]</t>
+          <t>[Jack of Spades, 5 of Spades, Queen of Clubs]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -3535,42 +3558,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[5 of Spades, 6 of Hearts]</t>
+          <t>[5 of Spades, 4 of Hearts]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[5 of Hearts, 3 of Clubs, 8 of Hearts, 7 of Clubs]</t>
+          <t>[5 of Hearts, 2 of Spades, King of Hearts]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[7 of Spades, 2 of Spades]</t>
+          <t>[6 of Clubs, 1 of Clubs]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 6 of Spades, 6 of Clubs]</t>
+          <t>[3 of Clubs, Jack of Spades, 7 of Clubs]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -3581,88 +3604,88 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[King of Hearts, 4 of Spades]</t>
+          <t>[8 of Spades, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[Jack of Spades, Jack of Diamonds]</t>
+          <t>[9 of Spades, 5 of Clubs, Queen of Clubs]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, 6 of Spades]</t>
+          <t>[2 of Clubs, 2 of Diamonds]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 7 of Diamonds, 3 of Clubs, 10 of Hearts]</t>
+          <t>[4 of Diamonds, Jack of Diamonds, 4 of Diamonds]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[8 of Spades, 3 of Hearts]</t>
+          <t>[Queen of Diamonds, 8 of Hearts]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[9 of Hearts, 10 of Clubs]</t>
+          <t>[6 of Hearts, 7 of Hearts, 9 of Clubs]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[1 of Spades, King of Diamonds]</t>
+          <t>[9 of Diamonds, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 9 of Spades, 2 of Diamonds, 6 of Diamonds]</t>
+          <t>[6 of Spades, 9 of Clubs, 2 of Clubs]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3673,42 +3696,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[9 of Hearts, Queen of Clubs]</t>
+          <t>[7 of Diamonds, Queen of Spades]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, Queen of Diamonds]</t>
+          <t>[7 of Hearts, 3 of Clubs, 3 of Spades, 1 of Spades, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 2 of Clubs]</t>
+          <t>[4 of Hearts, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[7 of Spades, 10 of Diamonds]</t>
+          <t>[8 of Diamonds, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3719,88 +3742,88 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[King of Spades, 5 of Clubs]</t>
+          <t>[1 of Hearts, 6 of Hearts]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[5 of Hearts, King of Spades, 3 of Hearts]</t>
+          <t>[2 of Hearts, 3 of Hearts, 10 of Hearts, 10 of Clubs]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, Jack of Spades]</t>
+          <t>[10 of Clubs, 6 of Spades]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 5 of Diamonds, 9 of Diamonds]</t>
+          <t>[4 of Clubs, 4 of Spades, Jack of Clubs]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 7 of Hearts]</t>
+          <t>[10 of Spades, 8 of Spades]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[10 of Spades, 7 of Hearts]</t>
+          <t>[9 of Hearts, King of Clubs]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 9 of Diamonds]</t>
+          <t>[King of Diamonds, 1 of Diamonds]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[6 of Diamonds, Jack of Clubs, King of Hearts]</t>
+          <t>[7 of Clubs, 1 of Spades]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3811,65 +3834,65 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, 3 of Spades]</t>
+          <t>[8 of Clubs, 1 of Hearts]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 1 of Hearts, Queen of Hearts, 8 of Spades]</t>
+          <t>[8 of Clubs, 1 of Clubs]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 9 of Clubs]</t>
+          <t>[10 of Hearts, Jack of Hearts]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[9 of Spades, 1 of Diamonds]</t>
+          <t>[Queen of Hearts, King of Diamonds]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
         <v>20</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[King of Clubs, 6 of Clubs]</t>
+          <t>[9 of Spades, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, 10 of Clubs, 8 of Hearts]</t>
+          <t>[Queen of Spades, King of Clubs]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3880,19 +3903,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 8 of Clubs]</t>
+          <t>[2 of Hearts, 10 of Spades]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, 8 of Diamonds]</t>
+          <t>[4 of Clubs, 10 of Diamonds, 3 of Hearts]</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -3903,16 +3926,16 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[2 of Hearts, King of Clubs]</t>
+          <t>[6 of Clubs, 4 of Spades]</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 9 of Clubs, 1 of Clubs, 4 of Spades]</t>
+          <t>[8 of Hearts, Jack of Hearts]</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D21" t="n">
         <v>18</v>
@@ -3972,19 +3995,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[7 of Clubs, 4 of Hearts]</t>
+          <t>[6 of Diamonds, 4 of Diamonds]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 2 of Diamonds, 5 of Hearts]</t>
+          <t>[10 of Hearts, King of Clubs]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -3995,42 +4018,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 7 of Hearts]</t>
+          <t>[Queen of Spades, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 8 of Hearts, 6 of Diamonds, 5 of Diamonds]</t>
+          <t>[Queen of Diamonds, 2 of Spades, 10 of Spades]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, 1 of Spades]</t>
+          <t>[2 of Diamonds, 9 of Hearts]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 1 of Spades]</t>
+          <t>[8 of Hearts, 3 of Hearts, 9 of Spades]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -4041,19 +4064,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 7 of Spades]</t>
+          <t>[2 of Hearts, Jack of Spades]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 9 of Hearts]</t>
+          <t>[Queen of Clubs, 4 of Diamonds, 3 of Diamonds]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -4064,62 +4087,62 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[10 of Clubs, 7 of Clubs]</t>
+          <t>[9 of Clubs, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[5 of Clubs, Jack of Hearts, Queen of Spades]</t>
+          <t>[8 of Diamonds, 6 of Spades, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[7 of Hearts, Queen of Clubs]</t>
+          <t>[Jack of Diamonds, 9 of Spades]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 9 of Clubs, 6 of Hearts]</t>
+          <t>[8 of Spades, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
         <v>17</v>
       </c>
-      <c r="D7" t="n">
-        <v>19</v>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[9 of Spades, Jack of Hearts]</t>
+          <t>[1 of Spades, 10 of Clubs]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[3 of Clubs, 4 of Spades, Queen of Spades]</t>
+          <t>[4 of Spades, 4 of Clubs, 9 of Hearts]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
         <v>17</v>
@@ -4133,42 +4156,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 10 of Diamonds]</t>
+          <t>[7 of Spades, 5 of Diamonds]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[5 of Spades, Jack of Spades, 1 of Hearts, Queen of Hearts]</t>
+          <t>[10 of Spades, King of Clubs]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[King of Diamonds, 7 of Diamonds]</t>
+          <t>[5 of Hearts, King of Hearts]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[2 of Spades, King of Spades, 9 of Hearts]</t>
+          <t>[7 of Hearts, King of Spades]</t>
         </is>
       </c>
       <c r="C10" t="n">
+        <v>15</v>
+      </c>
+      <c r="D10" t="n">
         <v>17</v>
-      </c>
-      <c r="D10" t="n">
-        <v>21</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -4179,39 +4202,39 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[5 of Clubs, 8 of Diamonds]</t>
+          <t>[6 of Hearts, King of Diamonds]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[King of Spades, 2 of Hearts, 9 of Spades]</t>
+          <t>[5 of Diamonds, 1 of Diamonds, 8 of Clubs, Queen of Spades]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 4 of Diamonds]</t>
+          <t>[6 of Spades, 1 of Spades]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 1 of Clubs]</t>
+          <t>[1 of Clubs, Jack of Spades]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
         <v>21</v>
@@ -4225,19 +4248,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, King of Hearts]</t>
+          <t>[6 of Hearts, Jack of Hearts]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, Jack of Spades, 6 of Clubs]</t>
+          <t>[8 of Spades, 4 of Hearts, 5 of Spades]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -4248,39 +4271,39 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[5 of Spades, 3 of Diamonds]</t>
+          <t>[7 of Clubs, 5 of Clubs]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, 3 of Spades, 10 of Spades, 8 of Spades]</t>
+          <t>[8 of Clubs, Jack of Hearts]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[6 of Hearts, King of Hearts]</t>
+          <t>[3 of Diamonds, 2 of Clubs]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[8 of Spades, 9 of Diamonds]</t>
+          <t>[7 of Clubs, King of Hearts]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>17</v>
@@ -4294,65 +4317,65 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[King of Clubs, 3 of Spades]</t>
+          <t>[7 of Diamonds, Jack of Clubs]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[3 of Hearts, Queen of Hearts, Jack of Clubs]</t>
+          <t>[2 of Spades, 1 of Clubs, 3 of Clubs, Queen of Hearts, 2 of Diamonds]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[1 of Hearts, Jack of Clubs]</t>
+          <t>[1 of Hearts, 4 of Hearts]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 10 of Diamonds]</t>
+          <t>[8 of Diamonds, 4 of Clubs, 3 of Spades, 3 of Spades]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 8 of Clubs]</t>
+          <t>[Queen of Hearts, Queen of Clubs]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[King of Clubs, 6 of Diamonds, King of Diamonds]</t>
+          <t>[10 of Clubs, 6 of Clubs, 7 of Spades]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -4363,16 +4386,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[6 of Spades, 4 of Clubs]</t>
+          <t>[5 of Clubs, Jack of Clubs]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 7 of Diamonds]</t>
+          <t>[Jack of Diamonds, 6 of Clubs, 1 of Diamonds]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
         <v>17</v>
@@ -4386,46 +4409,46 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[8 of Hearts, 5 of Diamonds]</t>
+          <t>[7 of Hearts, King of Spades]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 10 of Spades]</t>
+          <t>[King of Diamonds, 3 of Hearts, 4 of Spades]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[2 of Spades, 8 of Clubs]</t>
+          <t>[10 of Hearts, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[4 of Spades, 6 of Clubs, 10 of Clubs]</t>
+          <t>[2 of Hearts, 1 of Hearts, 2 of Clubs, 9 of Clubs, 5 of Spades]</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
@@ -4478,42 +4501,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 1 of Hearts]</t>
+          <t>[4 of Diamonds, 1 of Clubs]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[9 of Hearts, Queen of Clubs]</t>
+          <t>[1 of Clubs, 2 of Hearts, 9 of Clubs, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[1 of Hearts, 5 of Spades]</t>
+          <t>[3 of Spades, 1 of Diamonds]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[9 of Clubs, King of Diamonds]</t>
+          <t>[King of Clubs, 6 of Hearts, 4 of Clubs]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -4524,19 +4547,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 5 of Clubs]</t>
+          <t>[5 of Clubs, 8 of Clubs]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[King of Clubs, 7 of Clubs]</t>
+          <t>[9 of Diamonds, 9 of Spades]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -4547,42 +4570,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 9 of Clubs]</t>
+          <t>[6 of Diamonds, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[4 of Clubs, Queen of Spades, 9 of Spades]</t>
+          <t>[10 of Clubs, 8 of Hearts]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 9 of Diamonds]</t>
+          <t>[Queen of Diamonds, 2 of Spades]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[4 of Spades, 10 of Spades, 7 of Diamonds]</t>
+          <t>[7 of Hearts, 9 of Spades, 3 of Clubs]</t>
         </is>
       </c>
       <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
         <v>19</v>
-      </c>
-      <c r="D6" t="n">
-        <v>21</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -4593,19 +4616,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 4 of Diamonds]</t>
+          <t>[5 of Spades, 9 of Clubs]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, 5 of Spades, 8 of Diamonds, 3 of Spades]</t>
+          <t>[6 of Hearts, 9 of Diamonds, 4 of Hearts]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -4616,16 +4639,16 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 3 of Hearts]</t>
+          <t>[Jack of Clubs, 4 of Clubs]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 4 of Hearts, 4 of Clubs]</t>
+          <t>[8 of Hearts, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>18</v>
@@ -4639,42 +4662,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[3 of Spades, 8 of Clubs]</t>
+          <t>[2 of Diamonds, 10 of Spades]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[6 of Diamonds, 7 of Diamonds, 2 of Clubs, 10 of Hearts]</t>
+          <t>[9 of Hearts, 2 of Hearts, 8 of Spades]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, 2 of Spades]</t>
+          <t>[King of Spades, 7 of Clubs]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 6 of Spades]</t>
+          <t>[King of Diamonds, 1 of Spades]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -4685,249 +4708,249 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[8 of Spades, 2 of Spades]</t>
+          <t>[2 of Clubs, 3 of Diamonds]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 7 of Spades]</t>
+          <t>[1 of Spades, 2 of Diamonds, 10 of Hearts, Queen of Spades]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 10 of Hearts]</t>
+          <t>[4 of Diamonds, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[5 of Clubs, 5 of Diamonds, 10 of Clubs]</t>
+          <t>[7 of Clubs, Jack of Hearts]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[1 of Spades, 10 of Spades]</t>
+          <t>[7 of Spades, 7 of Hearts]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[3 of Clubs, 6 of Diamonds, 7 of Hearts, Queen of Diamonds]</t>
+          <t>[King of Clubs, 10 of Spades]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D13" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[4 of Spades, 8 of Diamonds]</t>
+          <t>[4 of Spades, 5 of Diamonds]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, 8 of Hearts]</t>
+          <t>[3 of Clubs, 6 of Clubs, 5 of Clubs, 1 of Hearts, Jack of Hearts]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 6 of Hearts]</t>
+          <t>[King of Diamonds, Queen of Hearts]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[6 of Spades, Jack of Diamonds, 6 of Clubs]</t>
+          <t>[8 of Diamonds, 3 of Spades, King of Hearts]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[King of Diamonds, 8 of Hearts]</t>
+          <t>[4 of Spades, 5 of Spades]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 3 of Diamonds, 10 of Diamonds]</t>
+          <t>[2 of Clubs, 6 of Spades, Jack of Spades]</t>
         </is>
       </c>
       <c r="C16" t="n">
+        <v>9</v>
+      </c>
+      <c r="D16" t="n">
         <v>18</v>
       </c>
-      <c r="D16" t="n">
-        <v>17</v>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[King of Hearts, 2 of Clubs]</t>
+          <t>[1 of Diamonds, 5 of Hearts]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[8 of Clubs, 8 of Spades, 9 of Spades]</t>
+          <t>[King of Spades, Jack of Spades]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[King of Hearts, 7 of Clubs]</t>
+          <t>[Jack of Clubs, 3 of Hearts]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 3 of Clubs, 10 of Diamonds, 2 of Diamonds]</t>
+          <t>[King of Hearts, 3 of Hearts, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, 1 of Spades]</t>
+          <t>[5 of Hearts, 8 of Clubs]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[King of Clubs, 3 of Diamonds, 7 of Spades]</t>
+          <t>[Queen of Hearts, Queen of Spades]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D19" t="n">
         <v>20</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 3 of Hearts]</t>
+          <t>[2 of Spades, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, 6 of Hearts, 5 of Hearts]</t>
+          <t>[10 of Clubs, 6 of Clubs, 9 of Hearts]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[7 of Hearts, King of Spades]</t>
+          <t>[Queen of Clubs, 3 of Diamonds]</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, 5 of Hearts, 9 of Hearts]</t>
+          <t>[6 of Spades, Queen of Clubs, 7 of Spades]</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -4984,19 +5007,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[6 of Clubs, 10 of Hearts]</t>
+          <t>[7 of Hearts, Queen of Diamonds]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[9 of Spades, 1 of Hearts]</t>
+          <t>[10 of Hearts, 4 of Clubs, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -5007,39 +5030,39 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[8 of Hearts, King of Spades]</t>
+          <t>[Jack of Spades, King of Hearts]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[4 of Spades, King of Clubs, 5 of Spades]</t>
+          <t>[8 of Diamonds, 7 of Clubs, King of Hearts]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 8 of Spades]</t>
+          <t>[Jack of Clubs, 4 of Diamonds]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[King of Hearts, King of Clubs]</t>
+          <t>[6 of Hearts, 6 of Clubs, 8 of Clubs]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
         <v>20</v>
@@ -5053,39 +5076,39 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, 7 of Diamonds]</t>
+          <t>[3 of Hearts, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[8 of Spades, 10 of Hearts]</t>
+          <t>[5 of Diamonds, 3 of Spades, 2 of Spades, 3 of Clubs, Jack of Hearts]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 9 of Clubs]</t>
+          <t>[Queen of Clubs, 10 of Clubs]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, 3 of Spades, 3 of Clubs, 2 of Spades]</t>
+          <t>[8 of Spades, 6 of Diamonds, 4 of Clubs]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
         <v>18</v>
@@ -5099,180 +5122,180 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[3 of Spades, 9 of Hearts]</t>
+          <t>[3 of Diamonds, 10 of Hearts]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, Jack of Diamonds]</t>
+          <t>[2 of Clubs, 2 of Diamonds, Queen of Hearts, 1 of Diamonds, King of Spades]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 10 of Diamonds]</t>
+          <t>[Queen of Hearts, 2 of Hearts]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, 6 of Hearts, 10 of Spades]</t>
+          <t>[9 of Hearts, 8 of Hearts]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 4 of Clubs]</t>
+          <t>[4 of Hearts, 1 of Hearts]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 7 of Spades, Queen of Clubs]</t>
+          <t>[King of Diamonds, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[1 of Spades, Queen of Diamonds]</t>
+          <t>[1 of Clubs, 7 of Hearts]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 7 of Clubs]</t>
+          <t>[Jack of Spades, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Tie</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 1 of Hearts]</t>
+          <t>[5 of Diamonds, 2 of Spades]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 8 of Clubs, 5 of Spades]</t>
+          <t>[10 of Clubs, King of Diamonds]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
         <v>20</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[8 of Clubs, 3 of Diamonds]</t>
+          <t>[4 of Spades, 8 of Clubs]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[5 of Hearts, Jack of Hearts, King of Spades]</t>
+          <t>[Queen of Diamonds, 9 of Spades]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 4 of Clubs]</t>
+          <t>[5 of Spades, 2 of Clubs]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, Jack of Clubs, 9 of Spades]</t>
+          <t>[10 of Diamonds, 6 of Spades, 5 of Spades]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 2 of Spades]</t>
+          <t>[9 of Diamonds, 7 of Spades]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 1 of Clubs, 7 of Clubs]</t>
+          <t>[5 of Hearts, Jack of Clubs, 6 of Clubs]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -5283,88 +5306,88 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[10 of Clubs, 1 of Diamonds]</t>
+          <t>[8 of Spades, 4 of Hearts]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[6 of Spades, 2 of Hearts, 3 of Hearts, 10 of Diamonds]</t>
+          <t>[1 of Diamonds, 7 of Clubs]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[7 of Spades, Jack of Spades]</t>
+          <t>[10 of Spades, 6 of Spades]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 3 of Clubs, 9 of Hearts]</t>
+          <t>[3 of Hearts, 8 of Hearts, 7 of Spades]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[8 of Hearts, King of Diamonds]</t>
+          <t>[Jack of Diamonds, 3 of Spades]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 6 of Clubs, 10 of Spades]</t>
+          <t>[5 of Clubs, 6 of Hearts, 1 of Spades, 1 of Clubs, 10 of Diamonds]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D17" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Win</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[8 of Diamonds, 4 of Hearts]</t>
+          <t>[9 of Hearts, 4 of Diamonds]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Queen of Spades, Queen of Clubs]</t>
+          <t>[1 of Hearts, King of Clubs]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -5375,69 +5398,69 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[4 of Spades, 5 of Clubs]</t>
+          <t>[1 of Spades, 3 of Diamonds]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[6 of Diamonds, 5 of Clubs, 5 of Hearts, 7 of Hearts]</t>
+          <t>[Queen of Spades, 9 of Clubs]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[10 of Clubs, Jack of Clubs]</t>
+          <t>[5 of Clubs, 2 of Diamonds]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 6 of Diamonds, King of Diamonds]</t>
+          <t>[9 of Clubs, 2 of Hearts, 4 of Spades, 3 of Clubs]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, 4 of Diamonds]</t>
+          <t>[7 of Diamonds, Queen of Spades]</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, 1 of Spades]</t>
+          <t>[5 of Hearts, King of Spades, 9 of Spades]</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
     </row>

--- a/src/brute_force/always_stand_results/always_stand_results.xlsx
+++ b/src/brute_force/always_stand_results/always_stand_results.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,61 +469,79 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Dealer Hand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Player Total</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dealer Total</t>
+          <t>Dealer Hand Value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[1 of Clubs, Queen of Hearts]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[8 of Diamonds, 8 of Clubs, 3 of Spades]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
+          <t>[2 of Diamonds, 10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[1 of Spades, 3 of Spades, 5 of Hearts]</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>19</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[1 of Hearts, 9 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[8 of Clubs, 8 of Spades, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
+          <t>[1 of Clubs, 3 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[8 of Spades, 8 of Hearts, 10 of Hearts]</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>26</v>
@@ -533,399 +551,573 @@
           <t>Win</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[King of Diamonds, 4 of Spades]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[10 of Diamonds, 6 of Clubs, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
+          <t>[King of Spades, Jack of Spades]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[Queen of Diamonds, 1 of Hearts]</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[3 of Clubs, 2 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[3 of Diamonds, 9 of Clubs, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
+          <t>[3 of Clubs, 5 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[10 of Clubs, Queen of Spades]</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 7 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[King of Diamonds, Queen of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>13</v>
+          <t>[2 of Hearts, 3 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[King of Hearts, 1 of Clubs]</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, 4 of Spades]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[5 of Spades, 9 of Clubs, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>9</v>
+          <t>[4 of Spades, 2 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[2 of Spades, 2 of Diamonds, 4 of Diamonds, 4 of Spades, 10 of Hearts]</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[5 of Spades, 4 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[2 of Hearts, Jack of Diamonds, 7 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>9</v>
+          <t>[Jack of Clubs, 8 of Spades]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[4 of Hearts, 2 of Spades, 4 of Hearts, 8 of Hearts]</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 2 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[6 of Hearts, Queen of Diamonds, 7 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>12</v>
+          <t>[6 of Clubs, 1 of Spades]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>17</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[King of Hearts, 6 of Diamonds, 9 of Hearts]</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[1 of Spades, 9 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[5 of Clubs, King of Spades, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>[Jack of Diamonds, Jack of Hearts]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>20</v>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[King of Clubs, 10 of Spades]</t>
+        </is>
+      </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[8 of Hearts, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[5 of Clubs, 10 of Diamonds, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>18</v>
+          <t>[9 of Spades, Queen of Clubs]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[3 of Clubs, King of Clubs, 6 of Hearts]</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[9 of Spades, 5 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[7 of Clubs, 7 of Diamonds, 1 of Diamonds, 7 of Spades]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>14</v>
+          <t>[10 of Spades, 5 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>15</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[7 of Spades, 6 of Spades, 1 of Diamonds, 1 of Hearts, 5 of Diamonds]</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[7 of Spades, 2 of Spades]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[King of Hearts, 2 of Clubs, 5 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>9</v>
+          <t>[9 of Spades, King of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>19</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[King of Diamonds, 9 of Hearts]</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, Jack of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[4 of Diamonds, 6 of Clubs, 3 of Spades, 4 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>20</v>
+          <t>[5 of Spades, Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>15</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[5 of Spades, 7 of Clubs, 6 of Hearts]</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, 3 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[King of Hearts, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>6</v>
+          <t>[7 of Hearts, 3 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[6 of Clubs, 3 of Spades, 5 of Diamonds, 7 of Spades]</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 6 of Spades]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[2 of Hearts, Queen of Hearts, 4 of Clubs, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>15</v>
+          <t>[4 of Clubs, 8 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>12</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[Jack of Hearts, 10 of Clubs]</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 1 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[9 of Spades, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>21</v>
+          <t>[Queen of Clubs, 9 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>19</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[4 of Clubs, 9 of Clubs, 6 of Spades]</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>19</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 3 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[10 of Hearts, 4 of Clubs, 10 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>13</v>
+          <t>[2 of Clubs, Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[7 of Hearts, 6 of Diamonds, 5 of Hearts]</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[6 of Spades, 7 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[2 of Spades, 6 of Diamonds, 3 of Hearts, 1 of Diamonds, King of Spades]</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>13</v>
+          <t>[8 of Diamonds, Jack of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[Jack of Clubs, Queen of Hearts]</t>
+        </is>
       </c>
       <c r="D19" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 6 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[10 of Clubs, 1 of Spades]</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>16</v>
+          <t>[9 of Diamonds, 8 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[King of Spades, Jack of Spades]</t>
+        </is>
       </c>
       <c r="D20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
       </c>
-    </row>
-    <row r="21"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>[8 of Clubs, 7 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>15</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[10 of Diamonds, 3 of Hearts, Queen of Spades]</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>23</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -937,7 +1129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,475 +1145,637 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Dealer Hand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Player Total</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dealer Total</t>
+          <t>Dealer Hand Value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 8 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[Queen of Hearts, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
+          <t>[King of Spades, 8 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[King of Hearts, 7 of Clubs]</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[5 of Hearts, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[1 of Spades, Jack of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
+          <t>[King of Clubs, 6 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[2 of Hearts, 7 of Diamonds, Jack of Clubs]</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[5 of Spades, 6 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[4 of Diamonds, 2 of Clubs, 8 of Hearts, 10 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
+          <t>[4 of Hearts, 8 of Spades]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[5 of Spades, 8 of Clubs, 2 of Diamonds, 10 of Clubs]</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 1 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[Jack of Clubs, 6 of Diamonds, 6 of Spades]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
+          <t>[4 of Clubs, 2 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[Queen of Spades, 6 of Clubs, 10 of Hearts]</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1200</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[1 of Hearts, Queen of Hearts]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[2 of Diamonds, 7 of Diamonds, 6 of Hearts, 5 of Spades]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>21</v>
+          <t>[5 of Diamonds, 1 of Spades]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>16</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[4 of Spades, 3 of Clubs, Queen of Hearts]</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[9 of Hearts, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[7 of Diamonds, 9 of Diamonds, 3 of Spades]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>19</v>
+          <t>[2 of Clubs, 6 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[King of Diamonds, 5 of Hearts, 9 of Hearts]</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tie</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[3 of Clubs, 2 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[3 of Hearts, 8 of Spades, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
+          <t>[7 of Spades, 7 of Spades]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>14</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[1 of Hearts, 7 of Diamonds]</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 4 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[4 of Spades, 5 of Hearts, 5 of Diamonds, 8 of Spades]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>[4 of Spades, 7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>11</v>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[8 of Hearts, 1 of Diamonds]</t>
+        </is>
+      </c>
       <c r="D9" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 9 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[7 of Hearts, 9 of Hearts, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>[Jack of Hearts, 4 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>14</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[10 of Spades, King of Hearts]</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>20</v>
       </c>
-      <c r="D10" t="n">
-        <v>26</v>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[6 of Spades, 10 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[King of Spades, Queen of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>16</v>
+          <t>[7 of Hearts, 3 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[4 of Diamonds, 4 of Diamonds, 6 of Clubs, 9 of Spades]</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 1 of Spades]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[9 of Diamonds, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>12</v>
+          <t>[9 of Diamonds, 7 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>16</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[10 of Hearts, 6 of Spades, Queen of Diamonds]</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[7 of Spades, 3 of Diamonds, 10 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>14</v>
+          <t>[9 of Diamonds, Jack of Spades]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>19</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[3 of Hearts, King of Clubs, 5 of Diamonds]</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1200</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 6 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[3 of Diamonds, Queen of Clubs, 2 of Hearts, 1 of Diamonds, 3 of Spades]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>8</v>
+          <t>[9 of Spades, 8 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[Queen of Diamonds, 1 of Diamonds]</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[7 of Clubs, 10 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[Queen of Spades, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>17</v>
+          <t>[1 of Spades, 3 of Spades]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[Queen of Spades, 8 of Spades]</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[6 of Hearts, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[4 of Clubs, King of Hearts, King of Spades]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>16</v>
+          <t>[3 of Hearts, 6 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[10 of Diamonds, King of Spades]</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[2 of Spades, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[10 of Clubs, 8 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>12</v>
+          <t>[Queen of Clubs, Jack of Clubs]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[2 of Diamonds, Jack of Diamonds, 6 of Hearts]</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>18</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[10 of Spades, 4 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[King of Hearts, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>14</v>
+          <t>[1 of Clubs, 6 of Spades]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[8 of Diamonds, 5 of Spades, 5 of Clubs]</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 3 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[4 of Spades, 9 of Spades, 9 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>13</v>
+          <t>[5 of Hearts, 2 of Spades]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[1 of Clubs, 2 of Hearts, 3 of Clubs, 3 of Diamonds]</t>
+        </is>
       </c>
       <c r="D19" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 4 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[7 of Clubs, 5 of Clubs, 5 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>14</v>
+          <t>[10 of Diamonds, Jack of Spades]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>20</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[9 of Clubs, 1 of Hearts]</t>
+        </is>
       </c>
       <c r="D20" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[10 of Clubs, 6 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>[King of Diamonds, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>16</v>
+          <t>[8 of Diamonds, 2 of Spades]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[Queen of Hearts, Jack of Hearts]</t>
+        </is>
       </c>
       <c r="D21" t="n">
         <v>20</v>
@@ -1431,13 +1785,45 @@
           <t>Lose</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>[Jack of Diamonds, 4 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>14</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>[9 of Clubs, 10 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>19</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>600</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1450,7 +1836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1466,38 +1852,48 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Dealer Hand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Player Total</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dealer Total</t>
+          <t>Dealer Hand Value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 7 of Spades]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[Jack of Clubs, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
+          <t>[4 of Hearts, 8 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[7 of Spades, 5 of Spades, 8 of Clubs]</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>20</v>
@@ -1507,158 +1903,214 @@
           <t>Lose</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>900</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[7 of Clubs, 6 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[5 of Diamonds, Queen of Clubs, Queen of Hearts]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
+          <t>[Queen of Clubs, 2 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[8 of Diamonds, Jack of Hearts]</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 2 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[9 of Hearts, 6 of Spades, 10 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
+          <t>[4 of Clubs, 7 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[9 of Clubs, 2 of Hearts, 5 of Spades, 1 of Diamonds]</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[King of Spades, 6 of Spades]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[5 of Clubs, Jack of Diamonds, 6 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
+          <t>[6 of Hearts, 2 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[4 of Hearts, Queen of Hearts, 4 of Spades]</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[10 of Clubs, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[3 of Clubs, 1 of Clubs, 7 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
+          <t>[King of Diamonds, 1 of Spades]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>21</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[King of Hearts, 5 of Clubs, King of Clubs]</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 1 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[2 of Diamonds, 7 of Spades, 4 of Diamonds, Queen of Clubs]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>15</v>
+          <t>[4 of Clubs, 2 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[Queen of Spades, 7 of Clubs]</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, Jack of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[Queen of Spades, 1 of Spades]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>20</v>
+          <t>[1 of Diamonds, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[10 of Diamonds, 3 of Spades, Queen of Diamonds]</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[King of Clubs, 7 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[4 of Clubs, 2 of Clubs, Queen of Hearts, 6 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>17</v>
+          <t>[10 of Spades, 5 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[5 of Clubs, 7 of Hearts, King of Diamonds]</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>22</v>
@@ -1668,112 +2120,152 @@
           <t>Win</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>800</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[7 of Hearts, 10 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>19</v>
+          <t>[Queen of Hearts, 6 of Spades]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>16</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[8 of Hearts, 6 of Diamonds, Jack of Clubs]</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[5 of Spades, 2 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[5 of Hearts, 5 of Hearts, 4 of Spades, 3 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>7</v>
+          <t>[7 of Hearts, Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>17</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[2 of Clubs, 5 of Diamonds, 10 of Hearts]</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>17</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[2 of Spades, 2 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[9 of Clubs, 6 of Hearts, 9 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>4</v>
+          <t>[1 of Clubs, 10 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>21</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[6 of Clubs, 2 of Spades, 6 of Spades, 8 of Spades]</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[King of Diamonds, Queen of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[1 of Spades, 10 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>20</v>
+          <t>[10 of Diamonds, 8 of Spades]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>18</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[10 of Clubs, 2 of Spades, 7 of Diamonds]</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, 8 of Spades]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[1 of Diamonds, 4 of Spades, 5 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>19</v>
+          <t>[King of Spades, 2 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[7 of Spades, 3 of Hearts, 10 of Hearts]</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>20</v>
@@ -1783,166 +2275,230 @@
           <t>Lose</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>800</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[5 of Spades, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[4 of Clubs, 4 of Hearts, 6 of Hearts, 3 of Spades]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>15</v>
+          <t>[4 of Spades, 5 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[9 of Hearts, 3 of Spades, 9 of Diamonds]</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[2 of Hearts, 9 of Clubs, King of Hearts]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>15</v>
+          <t>[8 of Diamonds, King of Spades]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>18</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[6 of Diamonds, 9 of Clubs, 3 of Clubs]</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[King of Spades, 2 of Spades]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[Queen of Spades, 7 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>12</v>
+          <t>[6 of Clubs, 9 of Spades]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[3 of Diamonds, 1 of Hearts, 9 of Diamonds, 6 of Hearts]</t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[6 of Diamonds, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[5 of Clubs, Jack of Spades, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>16</v>
+          <t>[Jack of Spades, 8 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>18</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[10 of Spades, 9 of Spades]</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[8 of Clubs, 3 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[9 of Spades, King of Hearts]</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>11</v>
+          <t>[Jack of Diamonds, 4 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>14</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[Queen of Spades, 1 of Spades]</t>
+        </is>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[8 of Hearts, 8 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[10 of Spades, 3 of Spades, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>16</v>
+          <t>[3 of Diamonds, Jack of Spades]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>13</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[Jack of Clubs, 3 of Hearts, 7 of Diamonds]</t>
+        </is>
       </c>
       <c r="D20" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[9 of Spades, Queen of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>[9 of Diamonds, 8 of Spades]</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+          <t>[9 of Hearts, Jack of Hearts]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>19</v>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[3 of Clubs, King of Hearts, 1 of Clubs, 4 of Diamonds]</t>
+        </is>
+      </c>
       <c r="D21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -1956,7 +2512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1972,291 +2528,389 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Dealer Hand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Player Total</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dealer Total</t>
+          <t>Dealer Hand Value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[4 of Clubs, King of Hearts]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[9 of Clubs, 8 of Spades]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
+          <t>[4 of Hearts, 9 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[2 of Spades, 6 of Clubs, 6 of Spades, 7 of Spades]</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 8 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[3 of Spades, 8 of Clubs, 3 of Hearts, 2 of Hearts, 8 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
+          <t>[4 of Clubs, 9 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[3 of Clubs, 9 of Spades, 2 of Spades, 2 of Hearts, 10 of Spades]</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[King of Hearts, 7 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[5 of Diamonds, 3 of Diamonds, Queen of Hearts]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
+          <t>[Jack of Clubs, 5 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[10 of Hearts, 1 of Spades]</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[9 of Spades, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[Queen of Hearts, 2 of Spades, 5 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
+          <t>[Jack of Spades, Jack of Hearts]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[Queen of Spades, 4 of Spades, 6 of Clubs]</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[6 of Spades, 1 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[9 of Hearts, 6 of Clubs, 4 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>[5 of Spades, 4 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[8 of Spades, 9 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>17</v>
       </c>
-      <c r="D6" t="n">
-        <v>19</v>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[King of Spades, 3 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[7 of Spades, 3 of Clubs, 9 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>[2 of Clubs, 1 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>13</v>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[5 of Spades, 4 of Clubs, 7 of Spades, 10 of Diamonds]</t>
+        </is>
+      </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[9 of Spades, 4 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[7 of Spades, 4 of Hearts, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>13</v>
+          <t>[King of Clubs, Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[King of Hearts, Queen of Clubs]</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[1 of Spades, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[3 of Spades, 4 of Spades, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>21</v>
+          <t>[4 of Diamonds, 5 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[King of Spades, Jack of Hearts]</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 5 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[1 of Hearts, 5 of Clubs, 10 of Clubs, 5 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>15</v>
+          <t>[2 of Diamonds, Jack of Spades]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[7 of Clubs, 6 of Hearts, 3 of Spades, 2 of Diamonds]</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[9 of Diamonds, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>17</v>
+          <t>[2 of Hearts, 7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[1 of Spades, Jack of Clubs]</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[2 of Spades, 1 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[9 of Diamonds, 3 of Hearts, 2 of Clubs, 1 of Diamonds, Jack of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>13</v>
+          <t>[Queen of Diamonds, 10 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[1 of Hearts, 7 of Clubs]</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 6 of Spades]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[8 of Spades, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>12</v>
+          <t>[4 of Spades, 3 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[8 of Diamonds, 10 of Hearts]</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>18</v>
@@ -2266,43 +2920,59 @@
           <t>Lose</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 2 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[Queen of Spades, 7 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
+          <t>[5 of Clubs, King of Hearts]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>15</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[10 of Spades, 3 of Hearts, 6 of Hearts]</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 10 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[King of Spades, 4 of Diamonds, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>20</v>
+          <t>[1 of Clubs, 8 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>19</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[6 of Diamonds, 8 of Spades, King of Diamonds]</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>24</v>
@@ -2312,120 +2982,199 @@
           <t>Win</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[7 of Clubs, 6 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[3 of Clubs, 8 of Diamonds, 5 of Diamonds, 2 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>13</v>
+          <t>[10 of Clubs, Queen of Spades]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[8 of Hearts, 3 of Clubs, Queen of Hearts]</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 6 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[8 of Hearts, 4 of Spades, Queen of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>10</v>
+          <t>[7 of Diamonds, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[King of Diamonds, 9 of Clubs]</t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[10 of Clubs, 6 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[9 of Clubs, 7 of Diamonds, 7 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>16</v>
+          <t>[1 of Diamonds, 6 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[1 of Clubs, 10 of Diamonds]</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 1 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[2 of Clubs, 10 of Diamonds, Queen of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>21</v>
+          <t>[8 of Diamonds, Jack of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[8 of Clubs, 1 of Diamonds]</t>
+        </is>
       </c>
       <c r="D19" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[10 of Hearts, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[8 of Diamonds, 5 of Spades, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>20</v>
+          <t>[Queen of Clubs, 5 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>15</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[3 of Hearts, 3 of Spades, 2 of Clubs, 9 of Hearts]</t>
+        </is>
       </c>
       <c r="D20" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>[5 of Clubs, 9 of Spades]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>14</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[Jack of Diamonds, 8 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>18</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2439,7 +3188,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2455,483 +3204,622 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Dealer Hand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Player Total</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dealer Total</t>
+          <t>Dealer Hand Value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[8 of Spades, 7 of Spades]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[6 of Spades, 9 of Spades, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
+          <t>[2 of Spades, 10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[8 of Clubs, 10 of Clubs]</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 8 of Spades]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[1 of Spades, 2 of Hearts, 7 of Spades]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
+          <t>[Queen of Spades, 3 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[1 of Clubs, 5 of Clubs, 3 of Clubs]</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[2 of Spades, 10 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[7 of Hearts, 4 of Clubs, 1 of Spades, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
+          <t>[7 of Hearts, 4 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[4 of Hearts, Jack of Hearts, 8 of Clubs]</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[5 of Hearts, 4 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[Queen of Spades, 10 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
+          <t>[4 of Hearts, 7 of Spades]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[2 of Clubs, 2 of Diamonds, 7 of Diamonds, 3 of Spades, 8 of Spades]</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 6 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[King of Diamonds, 4 of Hearts, 3 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
+          <t>[7 of Spades, 10 of Spades]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[King of Hearts, King of Diamonds]</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[Queen of Spades, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[Jack of Spades, 3 of Clubs, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>20</v>
+          <t>[1 of Diamonds, 8 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>19</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[3 of Hearts, 2 of Hearts, 1 of Spades, Queen of Clubs, 3 of Clubs]</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[1 of Hearts, 8 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[3 of Hearts, 5 of Clubs, 1 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>19</v>
+          <t>[5 of Hearts, 9 of Spades]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>14</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[5 of Spades, 9 of Hearts, 4 of Spades]</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tie</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[10 of Clubs, 4 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[Queen of Hearts, Jack of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>14</v>
+          <t>[6 of Hearts, 5 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[5 of Diamonds, Queen of Spades, King of Clubs]</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 9 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[King of Clubs, 5 of Clubs, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>[9 of Clubs, 4 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>13</v>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[9 of Hearts, King of Spades]</t>
+        </is>
+      </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[3 of Spades, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[8 of Hearts, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>12</v>
+          <t>[King of Diamonds, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[Queen of Hearts, 4 of Clubs, 9 of Diamonds]</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, Jack of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[6 of Hearts, 6 of Clubs, 7 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>[5 of Spades, 6 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[1 of Clubs, 3 of Diamonds, 6 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>20</v>
       </c>
-      <c r="D12" t="n">
-        <v>19</v>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 10 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[6 of Spades, Jack of Spades, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>19</v>
+          <t>[Jack of Spades, Queen of Clubs]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[King of Spades, 1 of Diamonds]</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[King of Spades, Queen of Clubs]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[9 of Hearts, 1 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>20</v>
+          <t>[King of Hearts, 7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[8 of Hearts, 5 of Clubs, Jack of Clubs]</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tie</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[3 of Clubs, 4 of Spades]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[2 of Clubs, Queen of Diamonds, 2 of Diamonds, 2 of Spades, 2 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>7</v>
+          <t>[Queen of Diamonds, 3 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[Queen of Diamonds, 10 of Diamonds]</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 8 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[1 of Clubs, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>18</v>
+          <t>[Jack of Clubs, 6 of Spades]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[2 of Diamonds, Jack of Diamonds, 1 of Spades, 4 of Spades]</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 4 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[5 of Diamonds, 10 of Diamonds, 5 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>13</v>
+          <t>[8 of Diamonds, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>18</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[6 of Diamonds, 2 of Spades, 10 of Clubs]</t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[3 of Spades, 2 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[7 of Clubs, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>5</v>
+          <t>[9 of Spades, 7 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[Jack of Spades, 9 of Diamonds]</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[King of Hearts, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[6 of Diamonds, Queen of Hearts, King of Hearts]</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>20</v>
+          <t>[8 of Spades, 6 of Spades]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>14</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[9 of Clubs, 6 of Diamonds, King of Clubs]</t>
+        </is>
       </c>
       <c r="D19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 7 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[3 of Diamonds, 7 of Diamonds, 5 of Diamonds, Queen of Clubs]</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>10</v>
+          <t>[Jack of Diamonds, Jack of Hearts]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>20</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[2 of Hearts, 3 of Spades, 1 of Hearts, 7 of Clubs, 6 of Clubs]</t>
+        </is>
       </c>
       <c r="D20" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>[6 of Diamonds, 10 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>[1 of Clubs, King of Spades]</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>16</v>
-      </c>
-      <c r="D21" t="n">
-        <v>21</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -2945,7 +3833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2961,84 +3849,110 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Dealer Hand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Player Total</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dealer Total</t>
+          <t>Dealer Hand Value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[4 of Spades, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[2 of Spades, 6 of Diamonds, Queen of Clubs]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
+          <t>[Queen of Hearts, King of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[10 of Clubs, 7 of Diamonds]</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[4 of Hearts, 5 of Diamonds, 6 of Hearts, King of Spades]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
+          <t>[King of Hearts, 4 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[9 of Hearts, 9 of Diamonds]</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[Jack of Hearts, 3 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[6 of Diamonds, 8 of Hearts, 3 of Spades]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
+          <t>[8 of Hearts, 7 of Spades]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[King of Hearts, 7 of Hearts]</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>17</v>
@@ -3048,43 +3962,59 @@
           <t>Lose</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>900</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 10 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[2 of Diamonds, Jack of Hearts, 1 of Diamonds, 6 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
+          <t>[Jack of Clubs, 6 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[9 of Clubs, 3 of Clubs, 10 of Spades]</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 2 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[Queen of Diamonds, 2 of Hearts, 4 of Spades, 6 of Spades]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>13</v>
+          <t>[2 of Hearts, 10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[6 of Clubs, Queen of Diamonds, 6 of Hearts]</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>22</v>
@@ -3094,319 +4024,431 @@
           <t>Win</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1100</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[8 of Spades, 1 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[10 of Spades, King of Spades]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>[Jack of Clubs, 10 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[10 of Diamonds, 9 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>19</v>
       </c>
-      <c r="D7" t="n">
-        <v>20</v>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[3 of Diamonds, 10 of Hearts, King of Hearts]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>19</v>
+          <t>[Jack of Hearts, 5 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[Jack of Diamonds, King of Diamonds]</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[8 of Clubs, 2 of Spades, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>19</v>
+          <t>[King of Spades, 1 of Spades]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>21</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[Queen of Spades, Jack of Diamonds]</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>20</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1200</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 9 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[10 of Diamonds, 7 of Spades]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>19</v>
+          <t>[8 of Spades, Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[3 of Hearts, 4 of Clubs, 4 of Hearts, 5 of Hearts, 10 of Spades]</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1300</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 6 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[8 of Diamonds, 9 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>9</v>
+          <t>[Jack of Spades, 6 of Spades]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>16</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[8 of Hearts, 2 of Spades, 2 of Clubs, 2 of Diamonds, Jack of Spades]</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1400</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 2 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[5 of Hearts, 8 of Clubs, 3 of Diamonds, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>4</v>
+          <t>[3 of Diamonds, Queen of Clubs]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>13</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[8 of Clubs, 1 of Hearts]</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1300</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 4 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[Queen of Diamonds, 3 of Hearts, 5 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>8</v>
+          <t>[1 of Clubs, 6 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[Queen of Spades, King of Clubs]</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1200</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 1 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[5 of Clubs, 2 of Clubs, 1 of Spades]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>18</v>
+          <t>[9 of Hearts, 5 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>14</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[1 of Hearts, 2 of Spades, 3 of Clubs, King of Clubs, 4 of Diamonds]</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tie</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[10 of Hearts, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[King of Hearts, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>20</v>
+          <t>[4 of Spades, Queen of Clubs]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[4 of Hearts, 8 of Clubs, 3 of Diamonds, 6 of Spades]</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[7 of Clubs, 1 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[9 of Hearts, 1 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>18</v>
+          <t>[10 of Hearts, 9 of Spades]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>19</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[9 of Clubs, 5 of Spades, 7 of Spades]</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[10 of Clubs, 3 of Spades]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[1 of Spades, 5 of Spades, 8 of Hearts, 5 of Spades]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>13</v>
+          <t>[4 of Clubs, 5 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[7 of Clubs, Jack of Hearts]</t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[8 of Spades, 4 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[5 of Diamonds, Jack of Diamonds, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>12</v>
+          <t>[7 of Hearts, 8 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[3 of Spades, 8 of Diamonds, 5 of Hearts, 8 of Spades]</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, 4 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[5 of Clubs, 3 of Clubs, 9 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>14</v>
+          <t>[Queen of Diamonds, 10 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[3 of Hearts, 1 of Diamonds, 6 of Clubs]</t>
+        </is>
       </c>
       <c r="D19" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 4 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[7 of Diamonds, Queen of Hearts]</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>14</v>
+          <t>[2 of Diamonds, 2 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[1 of Diamonds, 5 of Diamonds, 1 of Spades]</t>
+        </is>
       </c>
       <c r="D20" t="n">
         <v>17</v>
@@ -3416,28 +4458,44 @@
           <t>Lose</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>800</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[7 of Spades, Queen of Clubs]</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>[Jack of Clubs, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>17</v>
+          <t>[7 of Diamonds, 6 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[7 of Clubs, 2 of Clubs, 9 of Spades]</t>
+        </is>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -3451,7 +4509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3467,199 +4525,265 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Dealer Hand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Player Total</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dealer Total</t>
+          <t>Dealer Hand Value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[5 of Hearts, 2 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[3 of Diamonds, 2 of Spades, 7 of Spades, 7 of Spades]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
+          <t>[3 of Diamonds, 7 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[Queen of Spades, 7 of Hearts]</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[King of Spades, 1 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[King of Spades, Queen of Hearts]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
+          <t>[7 of Clubs, 6 of Spades]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[1 of Spades, 1 of Hearts, King of Spades, 2 of Spades, 6 of Hearts]</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>20</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[6 of Diamonds, 5 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[Jack of Spades, 5 of Spades, Queen of Clubs]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
+          <t>[8 of Diamonds, 5 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>13</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[8 of Hearts, 9 of Spades]</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[5 of Spades, 4 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[5 of Hearts, 2 of Spades, King of Hearts]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
+          <t>[Jack of Diamonds, 7 of Spades]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>17</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[2 of Clubs, 2 of Hearts, 4 of Diamonds, 7 of Clubs, 1 of Clubs, Jack of Clubs]</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[6 of Clubs, 1 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[3 of Clubs, Jack of Spades, 7 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
+          <t>[2 of Diamonds, 3 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[King of Spades, 2 of Spades, 3 of Spades, 10 of Diamonds]</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[8 of Spades, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[9 of Spades, 5 of Clubs, Queen of Clubs]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>16</v>
+          <t>[King of Hearts, 9 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>19</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[4 of Diamonds, 6 of Clubs, Queen of Diamonds]</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 2 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[4 of Diamonds, Jack of Diamonds, 4 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
+          <t>[9 of Clubs, King of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[10 of Clubs, 6 of Clubs, 9 of Hearts]</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 8 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[6 of Hearts, 7 of Hearts, 9 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>18</v>
+          <t>[8 of Spades, 5 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>13</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[7 of Spades, 5 of Diamonds, Jack of Hearts]</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>22</v>
@@ -3669,281 +4793,354 @@
           <t>Win</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 10 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[6 of Spades, 9 of Clubs, 2 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>19</v>
+          <t>[3 of Spades, 4 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[10 of Hearts, 10 of Clubs]</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[7 of Hearts, 3 of Clubs, 3 of Spades, 1 of Spades, 6 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>17</v>
+          <t>[9 of Hearts, 1 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[3 of Hearts, King of Hearts, 2 of Hearts, Queen of Diamonds]</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 7 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[8 of Diamonds, Queen of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>11</v>
+          <t>[5 of Spades, 7 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[3 of Clubs, 4 of Clubs, 10 of Spades]</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[1 of Hearts, 6 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[2 of Hearts, 3 of Hearts, 10 of Hearts, 10 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>17</v>
+          <t>[8 of Clubs, 6 of Spades]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>14</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[4 of Spades, King of Clubs, 8 of Diamonds]</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[10 of Clubs, 6 of Spades]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[4 of Clubs, 4 of Spades, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>16</v>
+          <t>[5 of Clubs, 5 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[Jack of Hearts, King of Diamonds]</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[10 of Spades, 8 of Spades]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[9 of Hearts, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>18</v>
+          <t>[5 of Hearts, 9 of Spades]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[4 of Clubs, Jack of Spades, 8 of Spades]</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[King of Diamonds, 1 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[7 of Clubs, 1 of Spades]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>21</v>
+          <t>[5 of Spades, 3 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[Queen of Hearts, 4 of Spades, 1 of Diamonds, 8 of Clubs]</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[8 of Clubs, 1 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[8 of Clubs, 1 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>19</v>
+          <t>[8 of Hearts, 7 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[King of Clubs, Queen of Clubs]</t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tie</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[10 of Hearts, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[Queen of Hearts, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>20</v>
+          <t>[2 of Diamonds, Queen of Hearts]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[10 of Spades, 10 of Hearts]</t>
+        </is>
       </c>
       <c r="D18" t="n">
         <v>20</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tie</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[9 of Spades, Jack of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[Queen of Spades, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>19</v>
+          <t>[9 of Diamonds, 1 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[Jack of Spades, 10 of Diamonds]</t>
+        </is>
       </c>
       <c r="D19" t="n">
         <v>20</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[2 of Hearts, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[4 of Clubs, 10 of Diamonds, 3 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>12</v>
+          <t>[2 of Clubs, 1 of Spades]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>13</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[6 of Diamonds, 3 of Hearts, Jack of Clubs]</t>
+        </is>
       </c>
       <c r="D20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>[6 of Clubs, 4 of Spades]</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>[8 of Hearts, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>10</v>
-      </c>
-      <c r="D21" t="n">
-        <v>18</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -3957,7 +5154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3973,245 +5170,327 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Dealer Hand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Player Total</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dealer Total</t>
+          <t>Dealer Hand Value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[6 of Diamonds, 4 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[10 of Hearts, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
+          <t>[3 of Hearts, 10 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[5 of Diamonds, 3 of Hearts, Jack of Diamonds]</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[Queen of Spades, 10 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[Queen of Diamonds, 2 of Spades, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>[3 of Clubs, 1 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[5 of Hearts, 9 of Spades, 2 of Spades, 4 of Clubs]</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>20</v>
       </c>
-      <c r="D3" t="n">
-        <v>22</v>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 9 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[8 of Hearts, 3 of Hearts, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
+          <t>[King of Clubs, 1 of Spades]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>21</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[5 of Hearts, 9 of Hearts, 2 of Diamonds, 3 of Clubs]</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[2 of Hearts, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[Queen of Clubs, 4 of Diamonds, 3 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
+          <t>[Queen of Hearts, King of Spades]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[King of Hearts, 2 of Clubs, 8 of Hearts]</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[9 of Clubs, 7 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[8 of Diamonds, 6 of Spades, 6 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>16</v>
+          <t>[King of Clubs, Queen of Spades]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[10 of Hearts, 2 of Hearts, 10 of Clubs]</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[8 of Spades, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>19</v>
+          <t>[2 of Clubs, Jack of Hearts]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>12</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[2 of Hearts, Queen of Spades, 6 of Hearts]</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[1 of Spades, 10 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[4 of Spades, 4 of Clubs, 9 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>[10 of Diamonds, 1 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>21</v>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[2 of Spades, 8 of Clubs, Queen of Diamonds]</t>
+        </is>
+      </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[7 of Spades, 5 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[10 of Spades, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>12</v>
+          <t>[7 of Spades, Queen of Clubs]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>17</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[6 of Clubs, 6 of Clubs, 5 of Diamonds]</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[5 of Hearts, King of Hearts]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[7 of Hearts, King of Spades]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>15</v>
+          <t>[Queen of Hearts, 3 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[6 of Hearts, 7 of Hearts, 3 of Diamonds, 10 of Spades]</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[6 of Hearts, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[5 of Diamonds, 1 of Diamonds, 8 of Clubs, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>16</v>
+          <t>[King of Hearts, 9 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[4 of Clubs, 10 of Spades, Jack of Clubs]</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>24</v>
@@ -4221,235 +5500,292 @@
           <t>Win</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1200</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[6 of Spades, 1 of Spades]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[1 of Clubs, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>17</v>
+          <t>[1 of Diamonds, Jack of Hearts]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>21</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[King of Diamonds, Jack of Spades]</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1300</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[6 of Hearts, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[8 of Spades, 4 of Hearts, 5 of Spades]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>16</v>
+          <t>[King of Spades, Jack of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[6 of Spades, Queen of Diamonds, 9 of Clubs]</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1400</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[7 of Clubs, 5 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[8 of Clubs, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>12</v>
+          <t>[1 of Hearts, 8 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[7 of Spades, 7 of Diamonds, 10 of Diamonds]</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, 2 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[7 of Clubs, King of Hearts]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>5</v>
+          <t>[4 of Hearts, 1 of Spades]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[5 of Spades, Jack of Clubs, 9 of Diamonds]</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1600</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[7 of Diamonds, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[2 of Spades, 1 of Clubs, 3 of Clubs, Queen of Hearts, 2 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>17</v>
+          <t>[2 of Diamonds, 5 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[7 of Diamonds, 7 of Clubs, 10 of Hearts]</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1700</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[1 of Hearts, 4 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[8 of Diamonds, 4 of Clubs, 3 of Spades, 3 of Spades]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>15</v>
+          <t>[1 of Clubs, 9 of Spades]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[8 of Spades, 1 of Hearts]</t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, Queen of Clubs]</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[10 of Clubs, 6 of Clubs, 7 of Spades]</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>20</v>
+          <t>[3 of Spades, 4 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[3 of Spades, 9 of Diamonds, 4 of Spades, 8 of Hearts]</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1900</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[5 of Clubs, Jack of Clubs]</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[Jack of Diamonds, 6 of Clubs, 1 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>15</v>
+          <t>[9 of Hearts, King of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>19</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[7 of Hearts, 8 of Clubs, Jack of Spades]</t>
+        </is>
       </c>
       <c r="D19" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[7 of Hearts, King of Spades]</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[King of Diamonds, 3 of Hearts, 4 of Spades]</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>17</v>
+          <t>[4 of Hearts, 7 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[6 of Diamonds, 8 of Spades, 4 of Spades]</t>
+        </is>
       </c>
       <c r="D20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tie</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>[10 of Hearts, 9 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>[2 of Hearts, 1 of Hearts, 2 of Clubs, 9 of Clubs, 5 of Spades]</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>19</v>
-      </c>
-      <c r="D21" t="n">
-        <v>19</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Tie</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1900</v>
       </c>
     </row>
   </sheetData>
@@ -4463,7 +5799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4479,38 +5815,48 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Dealer Hand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Player Total</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dealer Total</t>
+          <t>Dealer Hand Value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 1 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[1 of Clubs, 2 of Hearts, 9 of Clubs, 6 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
+          <t>[3 of Spades, 1 of Spades]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[8 of Diamonds, 3 of Diamonds, 7 of Hearts]</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>18</v>
@@ -4520,66 +5866,90 @@
           <t>Lose</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>900</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[3 of Spades, 1 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[King of Clubs, 6 of Hearts, 4 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
+          <t>[2 of Spades, 2 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[Queen of Diamonds, 8 of Clubs]</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[5 of Clubs, 8 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[9 of Diamonds, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
+          <t>[Queen of Diamonds, 1 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>21</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[9 of Hearts, 1 of Spades]</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[6 of Diamonds, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[10 of Clubs, 8 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
+          <t>[2 of Spades, 9 of Spades]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[2 of Diamonds, 7 of Clubs, 5 of Hearts, 4 of Hearts]</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>18</v>
@@ -4589,273 +5959,369 @@
           <t>Lose</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>800</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[Queen of Diamonds, 2 of Spades]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[7 of Hearts, 9 of Spades, 3 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
+          <t>[King of Diamonds, 10 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[2 of Clubs, 3 of Clubs, 10 of Diamonds, Queen of Clubs]</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[5 of Spades, 9 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[6 of Hearts, 9 of Diamonds, 4 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>14</v>
+          <t>[10 of Clubs, 1 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>21</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[2 of Hearts, 8 of Spades, 1 of Diamonds]</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, 4 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[8 of Hearts, 10 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>14</v>
+          <t>[6 of Hearts, 4 of Spades]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[Queen of Hearts, Jack of Hearts]</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[2 of Diamonds, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[9 of Hearts, 2 of Hearts, 8 of Spades]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>12</v>
+          <t>[7 of Diamonds, 8 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[8 of Hearts, 6 of Diamonds, King of Diamonds]</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[King of Spades, 7 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[King of Diamonds, 1 of Spades]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>17</v>
+          <t>[4 of Clubs, 8 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[10 of Hearts, 4 of Diamonds, Queen of Hearts]</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 3 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[1 of Spades, 2 of Diamonds, 10 of Hearts, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
+          <t>[3 of Clubs, Jack of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>13</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[10 of Spades, 7 of Spades]</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 7 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[7 of Clubs, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>11</v>
+          <t>[4 of Hearts, 4 of Spades]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[5 of Clubs, 9 of Spades, 10 of Clubs]</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[7 of Spades, 7 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[King of Clubs, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>14</v>
+          <t>[6 of Clubs, 7 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[9 of Hearts, 7 of Hearts, 1 of Hearts]</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[4 of Spades, 5 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[3 of Clubs, 6 of Clubs, 5 of Clubs, 1 of Hearts, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>9</v>
+          <t>[1 of Clubs, 10 of Spades]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>21</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[8 of Clubs, 5 of Diamonds, 2 of Diamonds, 7 of Spades]</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[King of Diamonds, Queen of Hearts]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[8 of Diamonds, 3 of Spades, King of Hearts]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>20</v>
+          <t>[6 of Clubs, 5 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[4 of Clubs, 2 of Hearts, 9 of Diamonds, Queen of Spades]</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[4 of Spades, 5 of Spades]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[2 of Clubs, 6 of Spades, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>9</v>
+          <t>[Queen of Clubs, 5 of Spades]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[King of Clubs, Jack of Spades]</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, 5 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[King of Spades, Jack of Spades]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>16</v>
+          <t>[9 of Diamonds, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>19</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[10 of Hearts, King of Spades]</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>20</v>
@@ -4865,20 +6331,28 @@
           <t>Lose</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>900</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, 3 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[King of Hearts, 3 of Hearts, Queen of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>13</v>
+          <t>[1 of Diamonds, 6 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[3 of Hearts, Jack of Clubs, Jack of Diamonds]</t>
+        </is>
       </c>
       <c r="D18" t="n">
         <v>23</v>
@@ -4888,74 +6362,106 @@
           <t>Win</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[5 of Hearts, 8 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[Queen of Hearts, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>13</v>
+          <t>[6 of Diamonds, Jack of Hearts]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[5 of Hearts, Jack of Spades, King of Spades]</t>
+        </is>
       </c>
       <c r="D19" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[2 of Spades, 7 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[10 of Clubs, 6 of Clubs, 9 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>9</v>
+          <t>[Queen of Spades, 4 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>14</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[8 of Spades, 5 of Spades, Jack of Clubs]</t>
+        </is>
       </c>
       <c r="D20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 3 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>[6 of Spades, Queen of Clubs, 7 of Spades]</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>13</v>
+          <t>[3 of Diamonds, 3 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[5 of Clubs, 9 of Clubs, 6 of Spades]</t>
+        </is>
       </c>
       <c r="D21" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
@@ -4969,7 +6475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4985,84 +6491,110 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Player Hand Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Dealer Hand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Player Total</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dealer Total</t>
+          <t>Dealer Hand Value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Money</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[7 of Hearts, Queen of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[10 of Hearts, 4 of Clubs, 7 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
+          <t>[5 of Clubs, 7 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[Queen of Clubs, 3 of Spades, 6 of Spades]</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[Jack of Spades, King of Hearts]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[8 of Diamonds, 7 of Clubs, King of Hearts]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
+          <t>[9 of Spades, 4 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[5 of Spades, 2 of Hearts, 5 of Diamonds, 7 of Spades]</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, 4 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[6 of Hearts, 6 of Clubs, 8 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
+          <t>[2 of Spades, 6 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[King of Diamonds, King of Hearts]</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>20</v>
@@ -5072,396 +6604,509 @@
           <t>Lose</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 6 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[5 of Diamonds, 3 of Spades, 2 of Spades, 3 of Clubs, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
+          <t>[5 of Hearts, Queen of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[Jack of Diamonds, 1 of Clubs]</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 10 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[8 of Spades, 6 of Diamonds, 4 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
+          <t>[1 of Spades, 8 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>19</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[3 of Hearts, 2 of Clubs, 2 of Clubs, 8 of Spades, 10 of Clubs]</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, 10 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[2 of Clubs, 2 of Diamonds, Queen of Hearts, 1 of Diamonds, King of Spades]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>13</v>
+          <t>[9 of Hearts, 8 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>17</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[9 of Hearts, 10 of Spades]</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[Queen of Hearts, 2 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[9 of Hearts, 8 of Hearts]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>12</v>
+          <t>[7 of Clubs, 6 of Diamonds]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[Jack of Diamonds, 9 of Diamonds]</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[4 of Hearts, 1 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[King of Diamonds, Jack of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>15</v>
+          <t>[King of Spades, Queen of Spades]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[2 of Spades, 4 of Spades, Jack of Spades, 2 of Diamonds]</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[1 of Clubs, 7 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[Jack of Spades, 8 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>18</v>
+          <t>[10 of Clubs, 5 of Spades]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[7 of Hearts, Queen of Clubs]</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tie</t>
-        </is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, 2 of Spades]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[10 of Clubs, King of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>7</v>
+          <t>[8 of Hearts, 4 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>12</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[4 of Diamonds, 7 of Spades, King of Clubs]</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[4 of Spades, 8 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[Queen of Diamonds, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>12</v>
+          <t>[4 of Spades, 1 of Spades]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>15</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[2 of Diamonds, 3 of Diamonds, 1 of Diamonds, 8 of Hearts, 8 of Diamonds]</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[5 of Spades, 2 of Clubs]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[10 of Diamonds, 6 of Spades, 5 of Spades]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>7</v>
+          <t>[10 of Spades, 9 of Spades]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>19</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[10 of Diamonds, King of Diamonds]</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[9 of Diamonds, 7 of Spades]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[5 of Hearts, Jack of Clubs, 6 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>16</v>
+          <t>[10 of Hearts, 5 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>15</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[6 of Clubs, 6 of Hearts, 6 of Spades]</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[8 of Spades, 4 of Hearts]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[1 of Diamonds, 7 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>12</v>
+          <t>[Jack of Hearts, Jack of Spades]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[3 of Spades, 6 of Diamonds, 6 of Hearts, Jack of Hearts]</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[10 of Spades, 6 of Spades]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[3 of Hearts, 8 of Hearts, 7 of Spades]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>16</v>
+          <t>[4 of Diamonds, 1 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[King of Hearts, 5 of Clubs, Queen of Hearts]</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[Jack of Diamonds, 3 of Spades]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[5 of Clubs, 6 of Hearts, 1 of Spades, 1 of Clubs, 10 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>13</v>
+          <t>[1 of Diamonds, 8 of Spades]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>19</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[8 of Clubs, 7 of Diamonds, Jack of Clubs]</t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[9 of Hearts, 4 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[1 of Hearts, King of Clubs]</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>13</v>
+          <t>[1 of Hearts, 3 of Clubs]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[4 of Hearts, 1 of Clubs, 9 of Diamonds, 3 of Diamonds]</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[1 of Spades, 3 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[Queen of Spades, 9 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>14</v>
+          <t>[King of Spades, Jack of Clubs]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[9 of Clubs, Queen of Diamonds]</t>
+        </is>
       </c>
       <c r="D19" t="n">
         <v>19</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[5 of Clubs, 2 of Diamonds]</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[9 of Clubs, 2 of Hearts, 4 of Spades, 3 of Clubs]</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>7</v>
+          <t>[5 of Diamonds, 4 of Hearts]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[Queen of Hearts, Queen of Spades]</t>
+        </is>
       </c>
       <c r="D20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>[7 of Diamonds, Queen of Spades]</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>[5 of Hearts, King of Spades, 9 of Spades]</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>17</v>
-      </c>
-      <c r="D21" t="n">
-        <v>24</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
